--- a/teaching/traditional_assets/database/data/turkey/turkey_real_estate_general_diversified.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_real_estate_general_diversified.xlsx
@@ -644,10 +644,10 @@
         <v>-0.3886255924170616</v>
       </c>
       <c r="X2">
-        <v>0.2061493758261939</v>
+        <v>0.2091969397895566</v>
       </c>
       <c r="Y2">
-        <v>-0.5947749682432555</v>
+        <v>-0.5978225322066182</v>
       </c>
       <c r="Z2">
         <v>0.06614688128772635</v>
@@ -656,10 +656,10 @@
         <v>0.02523474178403756</v>
       </c>
       <c r="AB2">
-        <v>0.09900610124917891</v>
+        <v>0.095972490139988</v>
       </c>
       <c r="AC2">
-        <v>-0.07377135946514135</v>
+        <v>-0.07073774835595045</v>
       </c>
       <c r="AD2">
         <v>86.90000000000001</v>
@@ -772,10 +772,10 @@
         <v>-0.3886255924170616</v>
       </c>
       <c r="X3">
-        <v>0.2061493758261939</v>
+        <v>0.2091969397895566</v>
       </c>
       <c r="Y3">
-        <v>-0.5947749682432555</v>
+        <v>-0.5978225322066182</v>
       </c>
       <c r="Z3">
         <v>0.06614688128772635</v>
@@ -784,10 +784,10 @@
         <v>0.02523474178403756</v>
       </c>
       <c r="AB3">
-        <v>0.09900610124917891</v>
+        <v>0.095972490139988</v>
       </c>
       <c r="AC3">
-        <v>-0.07377135946514135</v>
+        <v>-0.07073774835595045</v>
       </c>
       <c r="AD3">
         <v>86.90000000000001</v>
@@ -1087,37 +1087,37 @@
         <v>0.749137931034483</v>
       </c>
       <c r="F2">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
         <v>29.1</v>
       </c>
       <c r="H2">
-        <v>149.114693309554</v>
+        <v>141.033023998312</v>
       </c>
       <c r="I2">
         <v>114.12</v>
       </c>
       <c r="J2">
-        <v>169.274693309554</v>
+        <v>168.153023998312</v>
       </c>
       <c r="K2">
         <v>86.90000000000001</v>
       </c>
       <c r="L2">
-        <v>22.04</v>
+        <v>29</v>
       </c>
       <c r="M2">
-        <v>0.0990061012491789</v>
+        <v>0.095972490139988</v>
       </c>
       <c r="N2">
-        <v>0.0718950966083976</v>
+        <v>0.0681218061120013</v>
       </c>
       <c r="O2">
-        <v>0.0631272831802361</v>
+        <v>0.058057283180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.206149375826194</v>
+        <v>0.209196939789557</v>
       </c>
       <c r="T2">
-        <v>0.0834351563066637</v>
+        <v>0.0849530748160017</v>
       </c>
       <c r="U2">
         <v>1.98907582570056</v>
       </c>
       <c r="V2">
-        <v>0.70676068042326</v>
+        <v>0.7527864229179489</v>
       </c>
       <c r="W2">
-        <v>4.693122782070711</v>
+        <v>4.592615196826365</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1151,16 +1151,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>29.1</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08093241433363596</v>
+        <v>0.07443241433363595</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1355,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07297436506825046</v>
+        <v>0.06934212286984265</v>
       </c>
       <c r="C2">
-        <v>167.959330539505</v>
+        <v>166.6154240991272</v>
       </c>
       <c r="D2">
-        <v>166.079330539505</v>
+        <v>164.7354240991272</v>
       </c>
       <c r="E2">
         <v>-86.90000000000001</v>
@@ -1406,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07297436506825046</v>
+        <v>0.06934212286984265</v>
       </c>
       <c r="T2">
         <v>0.5974495419983723</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1437,13 +1437,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.07286764146510032</v>
+        <v>0.06924339019952899</v>
       </c>
       <c r="C3">
-        <v>167.1099195897776</v>
+        <v>165.7267595751892</v>
       </c>
       <c r="D3">
-        <v>166.3899195897776</v>
+        <v>165.0067595751892</v>
       </c>
       <c r="E3">
         <v>-85.74000000000001</v>
@@ -1470,37 +1470,37 @@
         <v>3.01</v>
       </c>
       <c r="M3">
-        <v>0.026332</v>
+        <v>0.018792</v>
       </c>
       <c r="N3">
-        <v>2.983668</v>
+        <v>2.991208</v>
       </c>
       <c r="O3">
-        <v>0.65640696</v>
+        <v>0.6580657599999999</v>
       </c>
       <c r="P3">
-        <v>2.32726104</v>
+        <v>2.33314224</v>
       </c>
       <c r="Q3">
-        <v>2.35726104</v>
+        <v>2.36314224</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.07342482976272759</v>
+        <v>0.06981518201972625</v>
       </c>
       <c r="T3">
         <v>0.6021567202080564</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>114.309585295458</v>
+        <v>160.1745423584504</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1519,13 +1519,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.07276091786195016</v>
+        <v>0.06914465752921534</v>
       </c>
       <c r="C4">
-        <v>166.2616724970872</v>
+        <v>164.8389903584417</v>
       </c>
       <c r="D4">
-        <v>166.7016724970872</v>
+        <v>165.2789903584417</v>
       </c>
       <c r="E4">
         <v>-84.58000000000001</v>
@@ -1552,37 +1552,37 @@
         <v>3.01</v>
       </c>
       <c r="M4">
-        <v>0.052664</v>
+        <v>0.03758399999999999</v>
       </c>
       <c r="N4">
-        <v>2.957336</v>
+        <v>2.972416</v>
       </c>
       <c r="O4">
-        <v>0.65061392</v>
+        <v>0.65393152</v>
       </c>
       <c r="P4">
-        <v>2.30672208</v>
+        <v>2.31848448</v>
       </c>
       <c r="Q4">
-        <v>2.33672208</v>
+        <v>2.34848448</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.07388448761423486</v>
+        <v>0.07029789543797484</v>
       </c>
       <c r="T4">
         <v>0.6069599632791627</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>57.15479264772899</v>
+        <v>80.08727117922521</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1601,13 +1601,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.07265419425880001</v>
+        <v>0.06904592485890168</v>
       </c>
       <c r="C5">
-        <v>165.4145958156213</v>
+        <v>163.9521208874841</v>
       </c>
       <c r="D5">
-        <v>167.0145958156212</v>
+        <v>165.5521208874841</v>
       </c>
       <c r="E5">
         <v>-83.42</v>
@@ -1634,37 +1634,37 @@
         <v>3.01</v>
       </c>
       <c r="M5">
-        <v>0.07899600000000001</v>
+        <v>0.056376</v>
       </c>
       <c r="N5">
-        <v>2.931004</v>
+        <v>2.953624</v>
       </c>
       <c r="O5">
-        <v>0.6448208799999999</v>
+        <v>0.6497972799999999</v>
       </c>
       <c r="P5">
-        <v>2.28618312</v>
+        <v>2.30382672</v>
       </c>
       <c r="Q5">
-        <v>2.31618312</v>
+        <v>2.33382672</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.07435362294721651</v>
+        <v>0.07079056171020792</v>
       </c>
       <c r="T5">
         <v>0.6118622422898794</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>38.10319509848599</v>
+        <v>53.39151411948347</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.07254747065564986</v>
+        <v>0.06894719218858802</v>
       </c>
       <c r="C6">
-        <v>164.5686961488726</v>
+        <v>163.0661556303037</v>
       </c>
       <c r="D6">
-        <v>167.3286961488726</v>
+        <v>165.8261556303037</v>
       </c>
       <c r="E6">
         <v>-82.26000000000001</v>
@@ -1716,37 +1716,37 @@
         <v>3.01</v>
       </c>
       <c r="M6">
-        <v>0.105328</v>
+        <v>0.07516799999999998</v>
       </c>
       <c r="N6">
-        <v>2.904672</v>
+        <v>2.934832</v>
       </c>
       <c r="O6">
-        <v>0.6390278399999999</v>
+        <v>0.64566304</v>
       </c>
       <c r="P6">
-        <v>2.26564416</v>
+        <v>2.28916896</v>
       </c>
       <c r="Q6">
-        <v>2.29564416</v>
+        <v>2.31916896</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.0748325319329686</v>
+        <v>0.07129349186311253</v>
       </c>
       <c r="T6">
         <v>0.6168666521133194</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>28.57739632386449</v>
+        <v>40.04363558961261</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.07244074705249971</v>
+        <v>0.06884845951827438</v>
       </c>
       <c r="C7">
-        <v>163.7239801501036</v>
+        <v>162.1810990845202</v>
       </c>
       <c r="D7">
-        <v>167.6439801501036</v>
+        <v>166.1010990845202</v>
       </c>
       <c r="E7">
         <v>-81.10000000000001</v>
@@ -1798,37 +1798,37 @@
         <v>3.01</v>
       </c>
       <c r="M7">
-        <v>0.13166</v>
+        <v>0.09396</v>
       </c>
       <c r="N7">
-        <v>2.87834</v>
+        <v>2.91604</v>
       </c>
       <c r="O7">
-        <v>0.6332348</v>
+        <v>0.6415287999999999</v>
       </c>
       <c r="P7">
-        <v>2.2451052</v>
+        <v>2.2745112</v>
       </c>
       <c r="Q7">
-        <v>2.2751052</v>
+        <v>2.3045112</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.07532152321315759</v>
+        <v>0.07180701001923619</v>
       </c>
       <c r="T7">
         <v>0.6219764179330424</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>22.86191705909159</v>
+        <v>32.03490847169007</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.07233402344934955</v>
+        <v>0.06874972684796073</v>
       </c>
       <c r="C8">
-        <v>162.8804545228162</v>
+        <v>161.2969557776314</v>
       </c>
       <c r="D8">
-        <v>167.9604545228162</v>
+        <v>166.3769557776315</v>
       </c>
       <c r="E8">
         <v>-79.94000000000001</v>
@@ -1880,37 +1880,37 @@
         <v>3.01</v>
       </c>
       <c r="M8">
-        <v>0.157992</v>
+        <v>0.112752</v>
       </c>
       <c r="N8">
-        <v>2.852008</v>
+        <v>2.897248</v>
       </c>
       <c r="O8">
-        <v>0.62744176</v>
+        <v>0.6373945599999999</v>
       </c>
       <c r="P8">
-        <v>2.22456624</v>
+        <v>2.25985344</v>
       </c>
       <c r="Q8">
-        <v>2.25456624</v>
+        <v>2.28985344</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.07582091856313783</v>
+        <v>0.07233145409357525</v>
       </c>
       <c r="T8">
         <v>0.6271949021744615</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>19.051597549243</v>
+        <v>26.69575705974173</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1929,13 +1929,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.07222729984619941</v>
+        <v>0.06865099417764707</v>
       </c>
       <c r="C9">
-        <v>162.0381260212268</v>
+        <v>160.413730267262</v>
       </c>
       <c r="D9">
-        <v>168.2781260212268</v>
+        <v>166.653730267262</v>
       </c>
       <c r="E9">
         <v>-78.78</v>
@@ -1962,37 +1962,37 @@
         <v>3.01</v>
       </c>
       <c r="M9">
-        <v>0.184324</v>
+        <v>0.131544</v>
       </c>
       <c r="N9">
-        <v>2.825676</v>
+        <v>2.878456</v>
       </c>
       <c r="O9">
-        <v>0.6216487199999999</v>
+        <v>0.63326032</v>
       </c>
       <c r="P9">
-        <v>2.20402728</v>
+        <v>2.24519568</v>
       </c>
       <c r="Q9">
-        <v>2.23402728</v>
+        <v>2.27519568</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.07633105359806389</v>
+        <v>0.07286717653510438</v>
       </c>
       <c r="T9">
         <v>0.6325256118834381</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>16.32994075649399</v>
+        <v>22.88207747977863</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.07212057624304925</v>
+        <v>0.06855226150733343</v>
       </c>
       <c r="C10">
-        <v>161.1970014507473</v>
+        <v>159.5314271414139</v>
       </c>
       <c r="D10">
-        <v>168.5970014507473</v>
+        <v>166.9314271414139</v>
       </c>
       <c r="E10">
         <v>-77.62</v>
@@ -2044,37 +2044,37 @@
         <v>3.01</v>
       </c>
       <c r="M10">
-        <v>0.210656</v>
+        <v>0.150336</v>
       </c>
       <c r="N10">
-        <v>2.799344</v>
+        <v>2.859664</v>
       </c>
       <c r="O10">
-        <v>0.6158556799999999</v>
+        <v>0.62912608</v>
       </c>
       <c r="P10">
-        <v>2.183488319999999</v>
+        <v>2.23053792</v>
       </c>
       <c r="Q10">
-        <v>2.21348832</v>
+        <v>2.26053792</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.07685227852505354</v>
+        <v>0.07341454511666676</v>
       </c>
       <c r="T10">
         <v>0.637972206586088</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>14.28869816193225</v>
+        <v>20.0218177948063</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.07212617263989911</v>
+        <v>0.06845352883701977</v>
       </c>
       <c r="C11">
-        <v>160.0202501665113</v>
+        <v>158.6500510187205</v>
       </c>
       <c r="D11">
-        <v>168.5802501665113</v>
+        <v>167.2100510187205</v>
       </c>
       <c r="E11">
         <v>-76.46000000000001</v>
@@ -2126,45 +2126,45 @@
         <v>3.01</v>
       </c>
       <c r="M11">
-        <v>0.253692</v>
+        <v>0.169128</v>
       </c>
       <c r="N11">
-        <v>2.756308</v>
+        <v>2.840872</v>
       </c>
       <c r="O11">
-        <v>0.6063877599999999</v>
+        <v>0.62499184</v>
       </c>
       <c r="P11">
-        <v>2.14992024</v>
+        <v>2.21588016</v>
       </c>
       <c r="Q11">
-        <v>2.17992024</v>
+        <v>2.24588016</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.07738495894494407</v>
+        <v>0.0739739437769448</v>
       </c>
       <c r="T11">
         <v>0.6435385066668182</v>
       </c>
       <c r="U11">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y11">
-        <v>11.86478091544077</v>
+        <v>17.79717137316116</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.07203192903674896</v>
+        <v>0.06835479616670612</v>
       </c>
       <c r="C12">
-        <v>159.1427873383246</v>
+        <v>157.7696065487025</v>
       </c>
       <c r="D12">
-        <v>168.8627873383246</v>
+        <v>167.4896065487025</v>
       </c>
       <c r="E12">
         <v>-75.30000000000001</v>
@@ -2208,45 +2208,45 @@
         <v>3.01</v>
       </c>
       <c r="M12">
-        <v>0.2818800000000001</v>
+        <v>0.18792</v>
       </c>
       <c r="N12">
-        <v>2.72812</v>
+        <v>2.82208</v>
       </c>
       <c r="O12">
-        <v>0.6001863999999999</v>
+        <v>0.6208575999999999</v>
       </c>
       <c r="P12">
-        <v>2.1279336</v>
+        <v>2.2012224</v>
       </c>
       <c r="Q12">
-        <v>2.1579336</v>
+        <v>2.2312224</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.07792947670749883</v>
+        <v>0.07454577351856234</v>
       </c>
       <c r="T12">
         <v>0.6492285023048979</v>
       </c>
       <c r="U12">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y12">
-        <v>10.67830282389669</v>
+        <v>16.01745423584504</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2257,13 +2257,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.07212644543359882</v>
+        <v>0.06825606349639246</v>
       </c>
       <c r="C13">
-        <v>157.6994337182198</v>
+        <v>156.8900984120262</v>
       </c>
       <c r="D13">
-        <v>168.5794337182198</v>
+        <v>167.7700984120262</v>
       </c>
       <c r="E13">
         <v>-74.14</v>
@@ -2290,45 +2290,45 @@
         <v>3.01</v>
       </c>
       <c r="M13">
-        <v>0.3381400000000001</v>
+        <v>0.206712</v>
       </c>
       <c r="N13">
-        <v>2.67186</v>
+        <v>2.803288</v>
       </c>
       <c r="O13">
-        <v>0.5878091999999999</v>
+        <v>0.6167233599999999</v>
       </c>
       <c r="P13">
-        <v>2.0840508</v>
+        <v>2.18656464</v>
       </c>
       <c r="Q13">
-        <v>2.1140508</v>
+        <v>2.21656464</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.07848623082426834</v>
+        <v>0.0751304533667331</v>
       </c>
       <c r="T13">
         <v>0.6550463630134964</v>
       </c>
       <c r="U13">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y13">
-        <v>8.901638374637722</v>
+        <v>14.5613220325864</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2339,13 +2339,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.07204936183044865</v>
+        <v>0.0683070908260788</v>
       </c>
       <c r="C14">
-        <v>156.7704534088465</v>
+        <v>155.5850165243525</v>
       </c>
       <c r="D14">
-        <v>168.8104534088465</v>
+        <v>167.6250165243525</v>
       </c>
       <c r="E14">
         <v>-72.98</v>
@@ -2372,45 +2372,45 @@
         <v>3.01</v>
       </c>
       <c r="M14">
-        <v>0.36888</v>
+        <v>0.247776</v>
       </c>
       <c r="N14">
-        <v>2.64112</v>
+        <v>2.762224</v>
       </c>
       <c r="O14">
-        <v>0.5810464</v>
+        <v>0.60768928</v>
       </c>
       <c r="P14">
-        <v>2.0600736</v>
+        <v>2.15453472</v>
       </c>
       <c r="Q14">
-        <v>2.0900736</v>
+        <v>2.18453472</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.07905563844369165</v>
+        <v>0.07572842139327136</v>
       </c>
       <c r="T14">
         <v>0.6609964478291083</v>
       </c>
       <c r="U14">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y14">
-        <v>8.159835176751246</v>
+        <v>12.14806922381506</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2421,13 +2421,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.07208381822729852</v>
+        <v>0.06822083815576516</v>
       </c>
       <c r="C15">
-        <v>155.5071093188706</v>
+        <v>154.6703983916025</v>
       </c>
       <c r="D15">
-        <v>168.7071093188707</v>
+        <v>167.8703983916025</v>
       </c>
       <c r="E15">
         <v>-71.82000000000001</v>
@@ -2454,45 +2454,45 @@
         <v>3.01</v>
       </c>
       <c r="M15">
-        <v>0.416208</v>
+        <v>0.268424</v>
       </c>
       <c r="N15">
-        <v>2.593792</v>
+        <v>2.741576</v>
       </c>
       <c r="O15">
-        <v>0.57063424</v>
+        <v>0.6031467199999999</v>
       </c>
       <c r="P15">
-        <v>2.02315776</v>
+        <v>2.13842928</v>
       </c>
       <c r="Q15">
-        <v>2.05315776</v>
+        <v>2.16842928</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.07963813589344657</v>
+        <v>0.07634013581122431</v>
       </c>
       <c r="T15">
         <v>0.6670833162036999</v>
       </c>
       <c r="U15">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y15">
-        <v>7.231960942605619</v>
+        <v>11.21360236044467</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2503,13 +2503,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.07201531462414834</v>
+        <v>0.0683748254854515</v>
       </c>
       <c r="C16">
-        <v>154.5526946641216</v>
+        <v>153.0728191999708</v>
       </c>
       <c r="D16">
-        <v>168.9126946641216</v>
+        <v>167.4328191999709</v>
       </c>
       <c r="E16">
         <v>-70.66</v>
@@ -2536,45 +2536,45 @@
         <v>3.01</v>
       </c>
       <c r="M16">
-        <v>0.4482240000000001</v>
+        <v>0.3248</v>
       </c>
       <c r="N16">
-        <v>2.561776</v>
+        <v>2.6852</v>
       </c>
       <c r="O16">
-        <v>0.5635907199999999</v>
+        <v>0.590744</v>
       </c>
       <c r="P16">
-        <v>1.99818528</v>
+        <v>2.094456</v>
       </c>
       <c r="Q16">
-        <v>2.02818528</v>
+        <v>2.124456</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.08023417979552133</v>
+        <v>0.07696607614587384</v>
       </c>
       <c r="T16">
         <v>0.6733117396567703</v>
       </c>
       <c r="U16">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y16">
-        <v>6.715392303848074</v>
+        <v>9.267241379310345</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2585,13 +2585,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.0721223110209982</v>
+        <v>0.06830573281513784</v>
       </c>
       <c r="C17">
-        <v>153.0718085111276</v>
+        <v>152.1088743970635</v>
       </c>
       <c r="D17">
-        <v>168.5918085111276</v>
+        <v>167.6288743970636</v>
       </c>
       <c r="E17">
         <v>-69.5</v>
@@ -2618,45 +2618,45 @@
         <v>3.01</v>
       </c>
       <c r="M17">
-        <v>0.50634</v>
+        <v>0.3479999999999999</v>
       </c>
       <c r="N17">
-        <v>2.50366</v>
+        <v>2.662</v>
       </c>
       <c r="O17">
-        <v>0.5508052</v>
+        <v>0.5856399999999999</v>
       </c>
       <c r="P17">
-        <v>1.9528548</v>
+        <v>2.07636</v>
       </c>
       <c r="Q17">
-        <v>1.9828548</v>
+        <v>2.10636</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.08084424825999789</v>
+        <v>0.07760674448839747</v>
       </c>
       <c r="T17">
         <v>0.679686714249913</v>
       </c>
       <c r="U17">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y17">
-        <v>5.944622190622901</v>
+        <v>8.649425287356323</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2667,13 +2667,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.07206550741784805</v>
+        <v>0.06823664014482418</v>
       </c>
       <c r="C18">
-        <v>152.0820126490537</v>
+        <v>151.1453892734682</v>
       </c>
       <c r="D18">
-        <v>168.7620126490537</v>
+        <v>167.8253892734682</v>
       </c>
       <c r="E18">
         <v>-68.34</v>
@@ -2700,45 +2700,45 @@
         <v>3.01</v>
       </c>
       <c r="M18">
-        <v>0.540096</v>
+        <v>0.3711999999999999</v>
       </c>
       <c r="N18">
-        <v>2.469904</v>
+        <v>2.6388</v>
       </c>
       <c r="O18">
-        <v>0.5433788799999999</v>
+        <v>0.5805359999999999</v>
       </c>
       <c r="P18">
-        <v>1.92652512</v>
+        <v>2.058264</v>
       </c>
       <c r="Q18">
-        <v>1.95652512</v>
+        <v>2.088264</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.08146884216410483</v>
+        <v>0.07826266683907641</v>
       </c>
       <c r="T18">
         <v>0.6862134739524162</v>
       </c>
       <c r="U18">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y18">
-        <v>5.57308330370897</v>
+        <v>8.108836206896552</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2749,13 +2749,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.07200870381469789</v>
+        <v>0.06831340747451053</v>
       </c>
       <c r="C19">
-        <v>151.0925607980547</v>
+        <v>149.7670743592911</v>
       </c>
       <c r="D19">
-        <v>168.9325607980547</v>
+        <v>167.6070743592911</v>
       </c>
       <c r="E19">
         <v>-67.18000000000001</v>
@@ -2782,45 +2782,45 @@
         <v>3.01</v>
       </c>
       <c r="M19">
-        <v>0.5738520000000001</v>
+        <v>0.4160920000000001</v>
       </c>
       <c r="N19">
-        <v>2.436148</v>
+        <v>2.593908</v>
       </c>
       <c r="O19">
-        <v>0.5359525599999999</v>
+        <v>0.57065976</v>
       </c>
       <c r="P19">
-        <v>1.90019544</v>
+        <v>2.02324824</v>
       </c>
       <c r="Q19">
-        <v>1.93019544</v>
+        <v>2.05324824</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.0821084865237324</v>
+        <v>0.07893439454760307</v>
       </c>
       <c r="T19">
         <v>0.6928975049730521</v>
       </c>
       <c r="U19">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y19">
-        <v>5.24525487407903</v>
+        <v>7.233977101217999</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2831,13 +2831,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.07195190021154775</v>
+        <v>0.06825289480419688</v>
       </c>
       <c r="C20">
-        <v>150.1034540021414</v>
+        <v>148.7791159811084</v>
       </c>
       <c r="D20">
-        <v>169.1034540021414</v>
+        <v>167.7791159811084</v>
       </c>
       <c r="E20">
         <v>-66.02000000000001</v>
@@ -2864,45 +2864,45 @@
         <v>3.01</v>
       </c>
       <c r="M20">
-        <v>0.607608</v>
+        <v>0.440568</v>
       </c>
       <c r="N20">
-        <v>2.402392</v>
+        <v>2.569432</v>
       </c>
       <c r="O20">
-        <v>0.5285262399999999</v>
+        <v>0.56527504</v>
       </c>
       <c r="P20">
-        <v>1.87386576</v>
+        <v>2.00415696</v>
       </c>
       <c r="Q20">
-        <v>1.90386576</v>
+        <v>2.03415696</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.08276373196530212</v>
+        <v>0.07962250585877668</v>
       </c>
       <c r="T20">
         <v>0.6997445611405326</v>
       </c>
       <c r="U20">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y20">
-        <v>4.953851825519084</v>
+        <v>6.832089484483666</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2913,13 +2913,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.0718950966083976</v>
+        <v>0.06819238213388323</v>
       </c>
       <c r="C21">
-        <v>149.1146933095538</v>
+        <v>147.7915111528268</v>
       </c>
       <c r="D21">
-        <v>169.2746933095538</v>
+        <v>167.9515111528268</v>
       </c>
       <c r="E21">
         <v>-64.86000000000001</v>
@@ -2946,45 +2946,45 @@
         <v>3.01</v>
       </c>
       <c r="M21">
-        <v>0.641364</v>
+        <v>0.465044</v>
       </c>
       <c r="N21">
-        <v>2.368636</v>
+        <v>2.544956</v>
       </c>
       <c r="O21">
-        <v>0.5210999199999999</v>
+        <v>0.5598903200000001</v>
       </c>
       <c r="P21">
-        <v>1.84753608</v>
+        <v>1.98506568</v>
       </c>
       <c r="Q21">
-        <v>1.87753608</v>
+        <v>2.01506568</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.0834351563066637</v>
+        <v>0.08032760757269534</v>
       </c>
       <c r="T21">
         <v>0.7067606804232597</v>
       </c>
       <c r="U21">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y21">
-        <v>4.693122782070711</v>
+        <v>6.472505827405579</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.07734509300524745</v>
+        <v>0.06836586946356958</v>
       </c>
       <c r="C22">
-        <v>132.9649285116312</v>
+        <v>146.1382066530995</v>
       </c>
       <c r="D22">
-        <v>154.2849285116313</v>
+        <v>167.4582066530995</v>
       </c>
       <c r="E22">
         <v>-63.7</v>
@@ -3028,45 +3028,45 @@
         <v>3.01</v>
       </c>
       <c r="M22">
-        <v>1.49408</v>
+        <v>0.52432</v>
       </c>
       <c r="N22">
-        <v>1.51592</v>
+        <v>2.48568</v>
       </c>
       <c r="O22">
-        <v>0.3335023999999999</v>
+        <v>0.5468495999999999</v>
       </c>
       <c r="P22">
-        <v>1.1824176</v>
+        <v>1.9388304</v>
       </c>
       <c r="Q22">
-        <v>1.2124176</v>
+        <v>1.9688304</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.08412336625655931</v>
+        <v>0.08105033682946197</v>
       </c>
       <c r="T22">
         <v>0.7139522026880549</v>
       </c>
       <c r="U22">
-        <v>0.0644</v>
+        <v>0.0226</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.050232</v>
+        <v>0.017628</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y22">
-        <v>2.014617691154422</v>
+        <v>5.740768996032957</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.07933266940209728</v>
+        <v>0.06831705679325592</v>
       </c>
       <c r="C23">
-        <v>126.9782293474803</v>
+        <v>145.1167103785785</v>
       </c>
       <c r="D23">
-        <v>149.4582293474803</v>
+        <v>167.5967103785785</v>
       </c>
       <c r="E23">
         <v>-62.54000000000001</v>
@@ -3110,45 +3110,45 @@
         <v>3.01</v>
       </c>
       <c r="M23">
-        <v>1.831872</v>
+        <v>0.5505359999999999</v>
       </c>
       <c r="N23">
-        <v>1.178128</v>
+        <v>2.459464</v>
       </c>
       <c r="O23">
-        <v>0.2591881599999999</v>
+        <v>0.5410820799999999</v>
       </c>
       <c r="P23">
-        <v>0.91893984</v>
+        <v>1.91838192</v>
       </c>
       <c r="Q23">
-        <v>0.9489398400000002</v>
+        <v>1.94838192</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.08482899924316112</v>
+        <v>0.08179136302943786</v>
       </c>
       <c r="T23">
         <v>0.721325788807655</v>
       </c>
       <c r="U23">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y23">
-        <v>1.64312790413304</v>
+        <v>5.467399043840912</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.07963544579894713</v>
+        <v>0.06826824412294227</v>
       </c>
       <c r="C24">
-        <v>125.1093375461461</v>
+        <v>144.0954434049902</v>
       </c>
       <c r="D24">
-        <v>148.7493375461461</v>
+        <v>167.7354434049902</v>
       </c>
       <c r="E24">
         <v>-61.38000000000001</v>
@@ -3192,45 +3192,45 @@
         <v>3.01</v>
       </c>
       <c r="M24">
-        <v>1.919104</v>
+        <v>0.5767519999999999</v>
       </c>
       <c r="N24">
-        <v>1.090896</v>
+        <v>2.433248</v>
       </c>
       <c r="O24">
-        <v>0.2399971199999999</v>
+        <v>0.53531456</v>
       </c>
       <c r="P24">
-        <v>0.8508988799999997</v>
+        <v>1.89793344</v>
       </c>
       <c r="Q24">
-        <v>0.8808988799999999</v>
+        <v>1.92793344</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.08555272538326555</v>
+        <v>0.08255138990120803</v>
       </c>
       <c r="T24">
         <v>0.7288884412380142</v>
       </c>
       <c r="U24">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y24">
-        <v>1.568440272126992</v>
+        <v>5.218880905484506</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.07993822219579698</v>
+        <v>0.06821943145262863</v>
       </c>
       <c r="C25">
-        <v>123.2471386557787</v>
+        <v>143.0744063022379</v>
       </c>
       <c r="D25">
-        <v>148.0471386557787</v>
+        <v>167.8744063022379</v>
       </c>
       <c r="E25">
         <v>-60.22000000000001</v>
@@ -3274,45 +3274,45 @@
         <v>3.01</v>
       </c>
       <c r="M25">
-        <v>2.006336</v>
+        <v>0.6029679999999999</v>
       </c>
       <c r="N25">
-        <v>1.003664</v>
+        <v>2.407032</v>
       </c>
       <c r="O25">
-        <v>0.2208060799999999</v>
+        <v>0.52954704</v>
       </c>
       <c r="P25">
-        <v>0.7828579199999998</v>
+        <v>1.87748496</v>
       </c>
       <c r="Q25">
-        <v>0.81285792</v>
+        <v>1.90748496</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.08629524960493115</v>
+        <v>0.08333115773068651</v>
       </c>
       <c r="T25">
         <v>0.7366475261990321</v>
       </c>
       <c r="U25">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y25">
-        <v>1.500247216817123</v>
+        <v>4.991973040028659</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.08836788495568175</v>
+        <v>0.06817061878231495</v>
       </c>
       <c r="C26">
-        <v>104.8896214317852</v>
+        <v>142.0535996421148</v>
       </c>
       <c r="D26">
-        <v>130.8496214317852</v>
+        <v>168.0135996421149</v>
       </c>
       <c r="E26">
         <v>-59.06</v>
@@ -3356,45 +3356,45 @@
         <v>3.01</v>
       </c>
       <c r="M26">
-        <v>3.21552</v>
+        <v>0.629184</v>
       </c>
       <c r="N26">
-        <v>-0.2055199999999999</v>
+        <v>2.380816</v>
       </c>
       <c r="O26">
-        <v>-0.04521439999999998</v>
+        <v>0.5237795199999999</v>
       </c>
       <c r="P26">
-        <v>-0.1603055999999999</v>
+        <v>1.85703648</v>
       </c>
       <c r="Q26">
-        <v>-0.1303055999999997</v>
+        <v>1.88703648</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.08731119163860121</v>
+        <v>0.08413144576620389</v>
       </c>
       <c r="T26">
-        <v>0.7472637193476314</v>
+        <v>0.7446107976063925</v>
       </c>
       <c r="U26">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V26">
-        <v>0.2059386973180077</v>
+        <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.09171408045977011</v>
+        <v>0.017628</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y26">
-        <v>0.9360849878091257</v>
+        <v>4.783974163360798</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.08936488495568173</v>
+        <v>0.06812180611200129</v>
       </c>
       <c r="C27">
-        <v>101.9562607768194</v>
+        <v>141.0330239983124</v>
       </c>
       <c r="D27">
-        <v>129.0762607768195</v>
+        <v>168.1530239983124</v>
       </c>
       <c r="E27">
         <v>-57.90000000000001</v>
@@ -3438,45 +3438,45 @@
         <v>3.01</v>
       </c>
       <c r="M27">
-        <v>3.3495</v>
+        <v>0.6554</v>
       </c>
       <c r="N27">
-        <v>-0.3395000000000001</v>
+        <v>2.3546</v>
       </c>
       <c r="O27">
-        <v>-0.07469000000000003</v>
+        <v>0.5180119999999999</v>
       </c>
       <c r="P27">
-        <v>-0.2648100000000001</v>
+        <v>1.836588</v>
       </c>
       <c r="Q27">
-        <v>-0.2348099999999999</v>
+        <v>1.866588</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.08826467419378256</v>
+        <v>0.08495307481600173</v>
       </c>
       <c r="T27">
-        <v>0.7572272356055998</v>
+        <v>0.7527864229179491</v>
       </c>
       <c r="U27">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V27">
-        <v>0.1977011494252874</v>
+        <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.09266551724137929</v>
+        <v>0.017628</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y27">
-        <v>0.8986415882967607</v>
+        <v>4.592615196826365</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3487,13 +3487,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.09036188495568175</v>
+        <v>0.08641093608050306</v>
       </c>
       <c r="C28">
-        <v>99.07032490394045</v>
+        <v>99.99058102950869</v>
       </c>
       <c r="D28">
-        <v>127.3503249039404</v>
+        <v>128.2705810295087</v>
       </c>
       <c r="E28">
         <v>-56.74000000000001</v>
@@ -3520,37 +3520,37 @@
         <v>3.01</v>
       </c>
       <c r="M28">
-        <v>3.48348</v>
+        <v>3.28744</v>
       </c>
       <c r="N28">
-        <v>-0.4734799999999999</v>
+        <v>-0.2774400000000004</v>
       </c>
       <c r="O28">
-        <v>-0.1041656</v>
+        <v>-0.06103680000000008</v>
       </c>
       <c r="P28">
-        <v>-0.3693143999999999</v>
+        <v>-0.2164032000000003</v>
       </c>
       <c r="Q28">
-        <v>-0.3393143999999997</v>
+        <v>-0.1864032</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.08924392654775259</v>
+        <v>0.08618859022994355</v>
       </c>
       <c r="T28">
-        <v>0.7674600360867565</v>
+        <v>0.7650804272420737</v>
       </c>
       <c r="U28">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V28">
-        <v>0.1900972590627763</v>
+        <v>0.2014333341445015</v>
       </c>
       <c r="W28">
-        <v>0.09354376657824932</v>
+        <v>0.08704376657824933</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>0.8640784502853469</v>
+        <v>0.9156060642931885</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3569,13 +3569,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.09135888495568176</v>
+        <v>0.08740793608050304</v>
       </c>
       <c r="C29">
-        <v>96.22993650218328</v>
+        <v>97.19328556756471</v>
       </c>
       <c r="D29">
-        <v>125.6699365021833</v>
+        <v>126.6332855675647</v>
       </c>
       <c r="E29">
         <v>-55.58000000000001</v>
@@ -3602,37 +3602,37 @@
         <v>3.01</v>
       </c>
       <c r="M29">
-        <v>3.61746</v>
+        <v>3.41388</v>
       </c>
       <c r="N29">
-        <v>-0.6074600000000001</v>
+        <v>-0.40388</v>
       </c>
       <c r="O29">
-        <v>-0.1336412</v>
+        <v>-0.0888536</v>
       </c>
       <c r="P29">
-        <v>-0.4738188000000001</v>
+        <v>-0.3150264</v>
       </c>
       <c r="Q29">
-        <v>-0.4438187999999998</v>
+        <v>-0.2850263999999998</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.09025000773333827</v>
+        <v>0.08724185858925784</v>
       </c>
       <c r="T29">
-        <v>0.7779731872660273</v>
+        <v>0.7755609810399103</v>
       </c>
       <c r="U29">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V29">
-        <v>0.183056619838229</v>
+        <v>0.1939728402872977</v>
       </c>
       <c r="W29">
-        <v>0.09435696040868453</v>
+        <v>0.08785696040868454</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>0.8320755447192228</v>
+        <v>0.8816947285786261</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3651,13 +3651,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.09235588495568177</v>
+        <v>0.08840493608050305</v>
       </c>
       <c r="C30">
-        <v>93.43331605471265</v>
+        <v>94.43726145116342</v>
       </c>
       <c r="D30">
-        <v>124.0333160547127</v>
+        <v>125.0372614511634</v>
       </c>
       <c r="E30">
         <v>-54.42</v>
@@ -3684,37 +3684,37 @@
         <v>3.01</v>
       </c>
       <c r="M30">
-        <v>3.75144</v>
+        <v>3.54032</v>
       </c>
       <c r="N30">
-        <v>-0.7414400000000003</v>
+        <v>-0.5303200000000006</v>
       </c>
       <c r="O30">
-        <v>-0.1631168000000001</v>
+        <v>-0.1166704000000001</v>
       </c>
       <c r="P30">
-        <v>-0.5783232000000003</v>
+        <v>-0.4136496000000005</v>
       </c>
       <c r="Q30">
-        <v>-0.5483232</v>
+        <v>-0.3836496000000002</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.09128403561852352</v>
+        <v>0.08832438440299754</v>
       </c>
       <c r="T30">
-        <v>0.7887783704224999</v>
+        <v>0.7863326613321313</v>
       </c>
       <c r="U30">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V30">
-        <v>0.1765188834154351</v>
+        <v>0.1870452388484656</v>
       </c>
       <c r="W30">
-        <v>0.09511206896551724</v>
+        <v>0.08861206896551725</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>0.8023585609792505</v>
+        <v>0.8502056311293893</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3733,13 +3733,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.1030018857327431</v>
+        <v>0.08940193608050306</v>
       </c>
       <c r="C31">
-        <v>77.13076761089897</v>
+        <v>91.72096761150486</v>
       </c>
       <c r="D31">
-        <v>108.890767610899</v>
+        <v>123.4809676115049</v>
       </c>
       <c r="E31">
         <v>-53.26000000000001</v>
@@ -3766,45 +3766,45 @@
         <v>3.01</v>
       </c>
       <c r="M31">
-        <v>4.934988</v>
+        <v>3.66676</v>
       </c>
       <c r="N31">
-        <v>-1.924988</v>
+        <v>-0.6567600000000002</v>
       </c>
       <c r="O31">
-        <v>-0.42349736</v>
+        <v>-0.1444872000000001</v>
       </c>
       <c r="P31">
-        <v>-1.50149064</v>
+        <v>-0.5122728000000002</v>
       </c>
       <c r="Q31">
-        <v>-1.47149064</v>
+        <v>-0.4822727999999999</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.0931936710174624</v>
+        <v>0.08943740390163131</v>
       </c>
       <c r="T31">
-        <v>0.8087333063998032</v>
+        <v>0.7974077692382177</v>
       </c>
       <c r="U31">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V31">
-        <v>0.1341847234481624</v>
+        <v>0.1805954030261048</v>
       </c>
       <c r="W31">
-        <v>0.1270151010701546</v>
+        <v>0.08931510107015458</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y31">
-        <v>0.6099305611280108</v>
+        <v>0.8208881955732035</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3815,13 +3815,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1043108857327431</v>
+        <v>0.1004587253979792</v>
       </c>
       <c r="C32">
-        <v>74.36036665713317</v>
+        <v>75.58376123177669</v>
       </c>
       <c r="D32">
-        <v>107.2803666571332</v>
+        <v>108.5037612317767</v>
       </c>
       <c r="E32">
         <v>-52.10000000000001</v>
@@ -3848,37 +3848,37 @@
         <v>3.01</v>
       </c>
       <c r="M32">
-        <v>5.10516</v>
+        <v>4.878959999999999</v>
       </c>
       <c r="N32">
-        <v>-2.09516</v>
+        <v>-1.86896</v>
       </c>
       <c r="O32">
-        <v>-0.4609352</v>
+        <v>-0.4111711999999999</v>
       </c>
       <c r="P32">
-        <v>-1.6342248</v>
+        <v>-1.4577888</v>
       </c>
       <c r="Q32">
-        <v>-1.6042248</v>
+        <v>-1.427788799999999</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.09429929488914041</v>
+        <v>0.09158192298233479</v>
       </c>
       <c r="T32">
-        <v>0.8202866393483718</v>
+        <v>0.8187468205797318</v>
       </c>
       <c r="U32">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V32">
-        <v>0.1297118993332236</v>
+        <v>0.1357256464492433</v>
       </c>
       <c r="W32">
-        <v>0.1276712643678161</v>
+        <v>0.1211712643678161</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>0.5895995424237438</v>
+        <v>0.6169347565874694</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1056198857327431</v>
+        <v>0.1017677253979792</v>
       </c>
       <c r="C33">
-        <v>71.63690441479594</v>
+        <v>72.88775044702888</v>
       </c>
       <c r="D33">
-        <v>105.7169044147959</v>
+        <v>106.9677504470289</v>
       </c>
       <c r="E33">
         <v>-50.94</v>
@@ -3930,37 +3930,37 @@
         <v>3.01</v>
       </c>
       <c r="M33">
-        <v>5.275332</v>
+        <v>5.041592</v>
       </c>
       <c r="N33">
-        <v>-2.265332</v>
+        <v>-2.031592</v>
       </c>
       <c r="O33">
-        <v>-0.49837304</v>
+        <v>-0.4469502399999999</v>
       </c>
       <c r="P33">
-        <v>-1.76695896</v>
+        <v>-1.58464176</v>
       </c>
       <c r="Q33">
-        <v>-1.73695896</v>
+        <v>-1.55464176</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.09543696582956274</v>
+        <v>0.09277441461975994</v>
       </c>
       <c r="T33">
-        <v>0.832174851512841</v>
+        <v>0.8306127165301627</v>
       </c>
       <c r="U33">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V33">
-        <v>0.1255276445160229</v>
+        <v>0.1313473997895903</v>
       </c>
       <c r="W33">
-        <v>0.1282850945494994</v>
+        <v>0.1217850945494994</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>0.5705802023455585</v>
+        <v>0.5970336354072285</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1069288857327431</v>
+        <v>0.1030767253979792</v>
       </c>
       <c r="C34">
-        <v>68.95835816278964</v>
+        <v>70.23462105121209</v>
       </c>
       <c r="D34">
-        <v>104.1983581627896</v>
+        <v>105.4746210512121</v>
       </c>
       <c r="E34">
         <v>-49.78000000000001</v>
@@ -4012,37 +4012,37 @@
         <v>3.01</v>
       </c>
       <c r="M34">
-        <v>5.445504</v>
+        <v>5.204223999999999</v>
       </c>
       <c r="N34">
-        <v>-2.435504</v>
+        <v>-2.194223999999999</v>
       </c>
       <c r="O34">
-        <v>-0.53581088</v>
+        <v>-0.4827292799999999</v>
       </c>
       <c r="P34">
-        <v>-1.89969312</v>
+        <v>-1.711494719999999</v>
       </c>
       <c r="Q34">
-        <v>-1.86969312</v>
+        <v>-1.681494719999999</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.09660809767999751</v>
+        <v>0.09400197954063877</v>
       </c>
       <c r="T34">
-        <v>0.8444127169762652</v>
+        <v>0.8428276094203122</v>
       </c>
       <c r="U34">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V34">
-        <v>0.1216049056248972</v>
+        <v>0.1272427935461656</v>
       </c>
       <c r="W34">
-        <v>0.1288605603448276</v>
+        <v>0.1223605603448276</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>0.5527495710222599</v>
+        <v>0.5783763343007526</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4061,13 +4061,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.1082378857327431</v>
+        <v>0.1043857253979792</v>
       </c>
       <c r="C35">
-        <v>66.32281975390131</v>
+        <v>67.62260206120951</v>
       </c>
       <c r="D35">
-        <v>102.7228197539013</v>
+        <v>104.0226020612095</v>
       </c>
       <c r="E35">
         <v>-48.62</v>
@@ -4094,37 +4094,37 @@
         <v>3.01</v>
       </c>
       <c r="M35">
-        <v>5.615676</v>
+        <v>5.366855999999999</v>
       </c>
       <c r="N35">
-        <v>-2.605676</v>
+        <v>-2.356856</v>
       </c>
       <c r="O35">
-        <v>-0.5732487199999999</v>
+        <v>-0.5185083199999999</v>
       </c>
       <c r="P35">
-        <v>-2.03242728</v>
+        <v>-1.83834768</v>
       </c>
       <c r="Q35">
-        <v>-2.00242728</v>
+        <v>-1.808347679999999</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.09781418869014671</v>
+        <v>0.09526618819049906</v>
       </c>
       <c r="T35">
-        <v>0.8570158918565078</v>
+        <v>0.8554071259788244</v>
       </c>
       <c r="U35">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V35">
-        <v>0.1179199084847488</v>
+        <v>0.1233869513174939</v>
       </c>
       <c r="W35">
-        <v>0.1294011494252874</v>
+        <v>0.1229011494252873</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>0.5359995840215852</v>
+        <v>0.5608497787158814</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1095468857327431</v>
+        <v>0.1056947253979792</v>
       </c>
       <c r="C36">
-        <v>63.72848761575228</v>
+        <v>65.05001869074039</v>
       </c>
       <c r="D36">
-        <v>101.2884876157523</v>
+        <v>102.6100186907404</v>
       </c>
       <c r="E36">
         <v>-47.46</v>
@@ -4176,37 +4176,37 @@
         <v>3.01</v>
       </c>
       <c r="M36">
-        <v>5.785848000000001</v>
+        <v>5.529488000000001</v>
       </c>
       <c r="N36">
-        <v>-2.775848000000001</v>
+        <v>-2.519488000000001</v>
       </c>
       <c r="O36">
-        <v>-0.6106865600000002</v>
+        <v>-0.5542873600000002</v>
       </c>
       <c r="P36">
-        <v>-2.16516144</v>
+        <v>-1.965200640000001</v>
       </c>
       <c r="Q36">
-        <v>-2.13516144</v>
+        <v>-1.93520064</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.09905682791272472</v>
+        <v>0.0965687061933854</v>
       </c>
       <c r="T36">
-        <v>0.8700009811270611</v>
+        <v>0.8683678400088065</v>
       </c>
       <c r="U36">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V36">
-        <v>0.1144516758822561</v>
+        <v>0.1197579233375676</v>
       </c>
       <c r="W36">
-        <v>0.129909939148073</v>
+        <v>0.123409939148073</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>0.5202348903738916</v>
+        <v>0.5443541969889436</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4225,13 +4225,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1108558857327431</v>
+        <v>0.1070037253979792</v>
       </c>
       <c r="C37">
-        <v>61.1736594126698</v>
+        <v>62.51528590630391</v>
       </c>
       <c r="D37">
-        <v>99.89365941266981</v>
+        <v>101.2352859063039</v>
       </c>
       <c r="E37">
         <v>-46.3</v>
@@ -4258,37 +4258,37 @@
         <v>3.01</v>
       </c>
       <c r="M37">
-        <v>5.95602</v>
+        <v>5.69212</v>
       </c>
       <c r="N37">
-        <v>-2.94602</v>
+        <v>-2.68212</v>
       </c>
       <c r="O37">
-        <v>-0.6481243999999999</v>
+        <v>-0.5900664000000001</v>
       </c>
       <c r="P37">
-        <v>-2.2978956</v>
+        <v>-2.0920536</v>
       </c>
       <c r="Q37">
-        <v>-2.2678956</v>
+        <v>-2.0620536</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1003377021883051</v>
+        <v>0.09791130167328364</v>
       </c>
       <c r="T37">
-        <v>0.8833856116059389</v>
+        <v>0.8817273452397113</v>
       </c>
       <c r="U37">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V37">
-        <v>0.111181627999906</v>
+        <v>0.1163362683850657</v>
       </c>
       <c r="W37">
-        <v>0.1303896551724138</v>
+        <v>0.1238896551724138</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>0.5053710363632089</v>
+        <v>0.5288012199321166</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4307,13 +4307,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1283337256438608</v>
+        <v>0.1083127253979792</v>
       </c>
       <c r="C38">
-        <v>44.49897368302693</v>
+        <v>60.01690249428588</v>
       </c>
       <c r="D38">
-        <v>84.37897368302693</v>
+        <v>99.89690249428588</v>
       </c>
       <c r="E38">
         <v>-45.14000000000001</v>
@@ -4340,45 +4340,45 @@
         <v>3.01</v>
       </c>
       <c r="M38">
-        <v>7.942752</v>
+        <v>5.854752</v>
       </c>
       <c r="N38">
-        <v>-4.932752</v>
+        <v>-2.844752</v>
       </c>
       <c r="O38">
-        <v>-1.08520544</v>
+        <v>-0.62584544</v>
       </c>
       <c r="P38">
-        <v>-3.84754656</v>
+        <v>-2.21890656</v>
       </c>
       <c r="Q38">
-        <v>-3.817546559999999</v>
+        <v>-2.18890656</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1024536661461186</v>
+        <v>0.09929585326192869</v>
       </c>
       <c r="T38">
-        <v>0.9054965995630709</v>
+        <v>0.8955043350090817</v>
       </c>
       <c r="U38">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V38">
-        <v>0.08337160722127544</v>
+        <v>0.1131047053743694</v>
       </c>
       <c r="W38">
-        <v>0.1743427203065134</v>
+        <v>0.1243427203065134</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y38">
-        <v>0.3789618510057975</v>
+        <v>0.5141122971562246</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4389,13 +4389,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1300777256438607</v>
+        <v>0.1096217253979792</v>
       </c>
       <c r="C39">
-        <v>42.0512605326812</v>
+        <v>57.5534455925403</v>
       </c>
       <c r="D39">
-        <v>83.0912605326812</v>
+        <v>98.59344559254031</v>
       </c>
       <c r="E39">
         <v>-43.98</v>
@@ -4422,45 +4422,45 @@
         <v>3.01</v>
       </c>
       <c r="M39">
-        <v>8.163384000000001</v>
+        <v>6.017384</v>
       </c>
       <c r="N39">
-        <v>-5.153384000000001</v>
+        <v>-3.007384</v>
       </c>
       <c r="O39">
-        <v>-1.13374448</v>
+        <v>-0.6616244800000001</v>
       </c>
       <c r="P39">
-        <v>-4.01963952</v>
+        <v>-2.34575952</v>
       </c>
       <c r="Q39">
-        <v>-3.98963952</v>
+        <v>-2.31575952</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.103829121164311</v>
+        <v>0.1007243588692609</v>
       </c>
       <c r="T39">
-        <v>0.9198695614608976</v>
+        <v>0.9097186895330355</v>
       </c>
       <c r="U39">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V39">
-        <v>0.08111832053961934</v>
+        <v>0.1100478214453324</v>
       </c>
       <c r="W39">
-        <v>0.1747712954333644</v>
+        <v>0.1247712954333644</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y39">
-        <v>0.3687196388164515</v>
+        <v>0.5002173702060563</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4471,13 +4471,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1318217256438607</v>
+        <v>0.1280396464106415</v>
       </c>
       <c r="C40">
-        <v>39.64226033409932</v>
+        <v>41.10043817520574</v>
       </c>
       <c r="D40">
-        <v>81.84226033409932</v>
+        <v>83.30043817520574</v>
       </c>
       <c r="E40">
         <v>-42.82000000000001</v>
@@ -4504,37 +4504,37 @@
         <v>3.01</v>
       </c>
       <c r="M40">
-        <v>8.384016000000001</v>
+        <v>8.097496</v>
       </c>
       <c r="N40">
-        <v>-5.374016000000001</v>
+        <v>-5.087496</v>
       </c>
       <c r="O40">
-        <v>-1.18228352</v>
+        <v>-1.11924912</v>
       </c>
       <c r="P40">
-        <v>-4.191732480000001</v>
+        <v>-3.96824688</v>
       </c>
       <c r="Q40">
-        <v>-4.16173248</v>
+        <v>-3.938246879999999</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1052489456992192</v>
+        <v>0.1031326888714462</v>
       </c>
       <c r="T40">
-        <v>0.934706167290912</v>
+        <v>0.9336827931991508</v>
       </c>
       <c r="U40">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V40">
-        <v>0.07898362789383989</v>
+        <v>0.08177836704087288</v>
       </c>
       <c r="W40">
-        <v>0.1751773139745917</v>
+        <v>0.1686773139745917</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>0.3590164904265449</v>
+        <v>0.3717198501857858</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4553,13 +4553,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1335657256438608</v>
+        <v>0.1297836464106415</v>
       </c>
       <c r="C41">
-        <v>37.27025317970607</v>
+        <v>38.73466487313934</v>
       </c>
       <c r="D41">
-        <v>80.63025317970607</v>
+        <v>82.09466487313935</v>
       </c>
       <c r="E41">
         <v>-41.66</v>
@@ -4586,37 +4586,37 @@
         <v>3.01</v>
       </c>
       <c r="M41">
-        <v>8.604648000000001</v>
+        <v>8.310588000000001</v>
       </c>
       <c r="N41">
-        <v>-5.594648000000001</v>
+        <v>-5.300588000000001</v>
       </c>
       <c r="O41">
-        <v>-1.23082256</v>
+        <v>-1.16612936</v>
       </c>
       <c r="P41">
-        <v>-4.363825440000001</v>
+        <v>-4.134458640000001</v>
       </c>
       <c r="Q41">
-        <v>-4.333825440000001</v>
+        <v>-4.104458640000001</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1067153218582228</v>
+        <v>0.1046709296726175</v>
       </c>
       <c r="T41">
-        <v>0.9500292192137137</v>
+        <v>0.9489890684974976</v>
       </c>
       <c r="U41">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V41">
-        <v>0.07695840666579271</v>
+        <v>0.07968148583469664</v>
       </c>
       <c r="W41">
-        <v>0.1755625110521662</v>
+        <v>0.1690625110521662</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>0.3498109393899669</v>
+        <v>0.3621885719758938</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4635,13 +4635,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1353097256438607</v>
+        <v>0.1315276464106415</v>
       </c>
       <c r="C42">
-        <v>34.93361955605897</v>
+        <v>36.40330062173469</v>
       </c>
       <c r="D42">
-        <v>79.45361955605898</v>
+        <v>80.9233006217347</v>
       </c>
       <c r="E42">
         <v>-40.5</v>
@@ -4668,37 +4668,37 @@
         <v>3.01</v>
       </c>
       <c r="M42">
-        <v>8.825280000000001</v>
+        <v>8.523680000000001</v>
       </c>
       <c r="N42">
-        <v>-5.815280000000001</v>
+        <v>-5.513680000000001</v>
       </c>
       <c r="O42">
-        <v>-1.2793616</v>
+        <v>-1.2130096</v>
       </c>
       <c r="P42">
-        <v>-4.535918400000001</v>
+        <v>-4.3006704</v>
       </c>
       <c r="Q42">
-        <v>-4.505918400000001</v>
+        <v>-4.2706704</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1082305772225265</v>
+        <v>0.1062604451671611</v>
       </c>
       <c r="T42">
-        <v>0.9658630395339424</v>
+        <v>0.964805552972456</v>
       </c>
       <c r="U42">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V42">
-        <v>0.07503444649914789</v>
+        <v>0.07768944868882922</v>
       </c>
       <c r="W42">
-        <v>0.1759284482758621</v>
+        <v>0.1694284482758621</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>0.3410656659052177</v>
+        <v>0.3531338576764965</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4717,13 +4717,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1370537256438608</v>
+        <v>0.1332716464106415</v>
       </c>
       <c r="C43">
-        <v>32.63083312397228</v>
+        <v>34.10489324899699</v>
       </c>
       <c r="D43">
-        <v>78.31083312397229</v>
+        <v>79.78489324899699</v>
       </c>
       <c r="E43">
         <v>-39.34</v>
@@ -4750,37 +4750,37 @@
         <v>3.01</v>
       </c>
       <c r="M43">
-        <v>9.045912000000001</v>
+        <v>8.736772</v>
       </c>
       <c r="N43">
-        <v>-6.035912000000001</v>
+        <v>-5.726772</v>
       </c>
       <c r="O43">
-        <v>-1.32790064</v>
+        <v>-1.25988984</v>
       </c>
       <c r="P43">
-        <v>-4.708011360000001</v>
+        <v>-4.466882160000001</v>
       </c>
       <c r="Q43">
-        <v>-4.678011360000001</v>
+        <v>-4.436882160000001</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1097971971754507</v>
+        <v>0.1079038425428757</v>
       </c>
       <c r="T43">
-        <v>0.9822335995260431</v>
+        <v>0.9811581894635144</v>
       </c>
       <c r="U43">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V43">
-        <v>0.07320433804794917</v>
+        <v>0.07579458408666266</v>
       </c>
       <c r="W43">
-        <v>0.1762765349032801</v>
+        <v>0.1697765349032801</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>0.3327469911270416</v>
+        <v>0.3445208367575575</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4799,13 +4799,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1387977256438607</v>
+        <v>0.1350156464106415</v>
       </c>
       <c r="C44">
-        <v>30.36045411287044</v>
+        <v>31.83807116440344</v>
       </c>
       <c r="D44">
-        <v>77.20045411287045</v>
+        <v>78.67807116440345</v>
       </c>
       <c r="E44">
         <v>-38.18000000000001</v>
@@ -4832,37 +4832,37 @@
         <v>3.01</v>
       </c>
       <c r="M44">
-        <v>9.266544</v>
+        <v>8.949864</v>
       </c>
       <c r="N44">
-        <v>-6.256544</v>
+        <v>-5.939864</v>
       </c>
       <c r="O44">
-        <v>-1.37643968</v>
+        <v>-1.30677008</v>
       </c>
       <c r="P44">
-        <v>-4.88010432</v>
+        <v>-4.63309392</v>
       </c>
       <c r="Q44">
-        <v>-4.85010432</v>
+        <v>-4.60309392</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1114178385060619</v>
+        <v>0.1096039087936149</v>
       </c>
       <c r="T44">
-        <v>0.9991686615868367</v>
+        <v>0.9980747099715059</v>
       </c>
       <c r="U44">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V44">
-        <v>0.07146137761823609</v>
+        <v>0.07398995113221832</v>
       </c>
       <c r="W44">
-        <v>0.1766080459770115</v>
+        <v>0.1701080459770115</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>0.324824443719255</v>
+        <v>0.3363179596919015</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4881,13 +4881,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1405417256438607</v>
+        <v>0.1367596464106415</v>
       </c>
       <c r="C45">
-        <v>28.12112326925809</v>
+        <v>29.60153784601771</v>
       </c>
       <c r="D45">
-        <v>76.12112326925809</v>
+        <v>77.60153784601772</v>
       </c>
       <c r="E45">
         <v>-37.02</v>
@@ -4914,37 +4914,37 @@
         <v>3.01</v>
       </c>
       <c r="M45">
-        <v>9.487176000000002</v>
+        <v>9.162956000000001</v>
       </c>
       <c r="N45">
-        <v>-6.477176000000002</v>
+        <v>-6.152956000000001</v>
       </c>
       <c r="O45">
-        <v>-1.42497872</v>
+        <v>-1.35365032</v>
       </c>
       <c r="P45">
-        <v>-5.052197280000001</v>
+        <v>-4.799305680000002</v>
       </c>
       <c r="Q45">
-        <v>-5.022197280000001</v>
+        <v>-4.769305680000001</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1130953444447647</v>
+        <v>0.1113636264917485</v>
       </c>
       <c r="T45">
-        <v>1.016697936351518</v>
+        <v>1.015584792602585</v>
       </c>
       <c r="U45">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V45">
-        <v>0.06979948511548641</v>
+        <v>0.07226925459425974</v>
       </c>
       <c r="W45">
-        <v>0.1769241379310345</v>
+        <v>0.1704241379310345</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="Y45">
-        <v>0.3172703868885746</v>
+        <v>0.3284966117920898</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4963,13 +4963,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.1422857256438607</v>
+        <v>0.1385036464106415</v>
       </c>
       <c r="C46">
-        <v>25.91155630582558</v>
+        <v>27.39406677408434</v>
       </c>
       <c r="D46">
-        <v>75.07155630582558</v>
+        <v>76.55406677408435</v>
       </c>
       <c r="E46">
         <v>-35.86000000000001</v>
@@ -4996,37 +4996,37 @@
         <v>3.01</v>
       </c>
       <c r="M46">
-        <v>9.707808</v>
+        <v>9.376048000000001</v>
       </c>
       <c r="N46">
-        <v>-6.697808</v>
+        <v>-6.366048000000001</v>
       </c>
       <c r="O46">
-        <v>-1.47351776</v>
+        <v>-1.40053056</v>
       </c>
       <c r="P46">
-        <v>-5.22429024</v>
+        <v>-4.965517440000001</v>
       </c>
       <c r="Q46">
-        <v>-5.19429024</v>
+        <v>-4.935517440000001</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1148327613098498</v>
+        <v>0.1131861912505297</v>
       </c>
       <c r="T46">
-        <v>1.03485325664351</v>
+        <v>1.033720235327631</v>
       </c>
       <c r="U46">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V46">
-        <v>0.06821313318104355</v>
+        <v>0.0706267715352993</v>
       </c>
       <c r="W46">
-        <v>0.1772258620689655</v>
+        <v>0.1707258620689655</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="Y46">
-        <v>0.3100596962774707</v>
+        <v>0.3210307797059059</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5045,13 +5045,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.1440297256438607</v>
+        <v>0.1402476464106415</v>
       </c>
       <c r="C47">
-        <v>23.73053880352673</v>
+        <v>25.21449676947864</v>
       </c>
       <c r="D47">
-        <v>74.05053880352673</v>
+        <v>75.53449676947865</v>
       </c>
       <c r="E47">
         <v>-34.7</v>
@@ -5078,37 +5078,37 @@
         <v>3.01</v>
       </c>
       <c r="M47">
-        <v>9.92844</v>
+        <v>9.58914</v>
       </c>
       <c r="N47">
-        <v>-6.91844</v>
+        <v>-6.579140000000001</v>
       </c>
       <c r="O47">
-        <v>-1.5220568</v>
+        <v>-1.4474108</v>
       </c>
       <c r="P47">
-        <v>-5.396383200000001</v>
+        <v>-5.131729200000001</v>
       </c>
       <c r="Q47">
-        <v>-5.3663832</v>
+        <v>-5.1017292</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1166333569700289</v>
+        <v>0.1150750310914484</v>
       </c>
       <c r="T47">
-        <v>1.053668770400664</v>
+        <v>1.052515148697224</v>
       </c>
       <c r="U47">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V47">
-        <v>0.06669728577702035</v>
+        <v>0.06905728772340376</v>
       </c>
       <c r="W47">
-        <v>0.1775141762452107</v>
+        <v>0.1710141762452107</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         </is>
       </c>
       <c r="Y47">
-        <v>0.303169480804638</v>
+        <v>0.313896762379108</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5127,13 +5127,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.1457737256438607</v>
+        <v>0.1419916464106415</v>
       </c>
       <c r="C48">
-        <v>21.57692152408353</v>
+        <v>23.06172769976421</v>
       </c>
       <c r="D48">
-        <v>73.05692152408353</v>
+        <v>74.54172769976421</v>
       </c>
       <c r="E48">
         <v>-33.54000000000001</v>
@@ -5160,37 +5160,37 @@
         <v>3.01</v>
       </c>
       <c r="M48">
-        <v>10.149072</v>
+        <v>9.802232</v>
       </c>
       <c r="N48">
-        <v>-7.139072000000001</v>
+        <v>-6.792232</v>
       </c>
       <c r="O48">
-        <v>-1.57059584</v>
+        <v>-1.49429104</v>
       </c>
       <c r="P48">
-        <v>-5.56847616</v>
+        <v>-5.29794096</v>
       </c>
       <c r="Q48">
-        <v>-5.53847616</v>
+        <v>-5.26794096</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1185006413583628</v>
+        <v>0.1170338279635123</v>
       </c>
       <c r="T48">
-        <v>1.073181155037713</v>
+        <v>1.072006169969395</v>
       </c>
       <c r="U48">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V48">
-        <v>0.06524734478186774</v>
+        <v>0.06755604233811237</v>
       </c>
       <c r="W48">
-        <v>0.1777899550224888</v>
+        <v>0.1712899550224888</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>0.2965788399175806</v>
+        <v>0.3070729197186927</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5209,13 +5209,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.1475177256438607</v>
+        <v>0.1437356464106415</v>
       </c>
       <c r="C49">
-        <v>19.44961609487732</v>
+        <v>20.93471651947579</v>
       </c>
       <c r="D49">
-        <v>72.08961609487733</v>
+        <v>73.5747165194758</v>
       </c>
       <c r="E49">
         <v>-32.38</v>
@@ -5242,37 +5242,37 @@
         <v>3.01</v>
       </c>
       <c r="M49">
-        <v>10.369704</v>
+        <v>10.015324</v>
       </c>
       <c r="N49">
-        <v>-7.359704000000001</v>
+        <v>-7.005324000000002</v>
       </c>
       <c r="O49">
-        <v>-1.61913488</v>
+        <v>-1.54117128</v>
       </c>
       <c r="P49">
-        <v>-5.740569120000001</v>
+        <v>-5.464152720000001</v>
       </c>
       <c r="Q49">
-        <v>-5.710569120000001</v>
+        <v>-5.434152720000001</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1204383893085206</v>
+        <v>0.1190665416986729</v>
       </c>
       <c r="T49">
-        <v>1.093429856076161</v>
+        <v>1.092232701478252</v>
       </c>
       <c r="U49">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V49">
-        <v>0.06385910340353013</v>
+        <v>0.06611867973517381</v>
       </c>
       <c r="W49">
-        <v>0.1780539985326486</v>
+        <v>0.1715539985326486</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>0.2902686518342278</v>
+        <v>0.3005394533416991</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5291,13 +5291,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.1492617256438608</v>
+        <v>0.1454796464106415</v>
       </c>
       <c r="C50">
-        <v>17.34759103216414</v>
+        <v>18.83247361466577</v>
       </c>
       <c r="D50">
-        <v>71.14759103216414</v>
+        <v>72.63247361466577</v>
       </c>
       <c r="E50">
         <v>-31.22000000000001</v>
@@ -5324,37 +5324,37 @@
         <v>3.01</v>
       </c>
       <c r="M50">
-        <v>10.590336</v>
+        <v>10.228416</v>
       </c>
       <c r="N50">
-        <v>-7.580336000000001</v>
+        <v>-7.218415999999999</v>
       </c>
       <c r="O50">
-        <v>-1.66767392</v>
+        <v>-1.58805152</v>
       </c>
       <c r="P50">
-        <v>-5.91266208</v>
+        <v>-5.63036448</v>
       </c>
       <c r="Q50">
-        <v>-5.88266208</v>
+        <v>-5.60036448</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1224506660259921</v>
+        <v>0.1211774367313397</v>
       </c>
       <c r="T50">
-        <v>1.114457353308395</v>
+        <v>1.11323717650668</v>
       </c>
       <c r="U50">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V50">
-        <v>0.06252870541595658</v>
+        <v>0.06474120724069103</v>
       </c>
       <c r="W50">
-        <v>0.1783070402298851</v>
+        <v>0.1718070402298851</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>0.2842213882543481</v>
+        <v>0.2942782147304138</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5373,13 +5373,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.1510057256438607</v>
+        <v>0.1472236464106415</v>
       </c>
       <c r="C51">
-        <v>15.26986807206607</v>
+        <v>16.7540594247825</v>
       </c>
       <c r="D51">
-        <v>70.22986807206607</v>
+        <v>71.7140594247825</v>
       </c>
       <c r="E51">
         <v>-30.06000000000001</v>
@@ -5406,37 +5406,37 @@
         <v>3.01</v>
       </c>
       <c r="M51">
-        <v>10.810968</v>
+        <v>10.441508</v>
       </c>
       <c r="N51">
-        <v>-7.800967999999999</v>
+        <v>-7.431507999999999</v>
       </c>
       <c r="O51">
-        <v>-1.71621296</v>
+        <v>-1.63493176</v>
       </c>
       <c r="P51">
-        <v>-6.084755039999999</v>
+        <v>-5.796576239999999</v>
       </c>
       <c r="Q51">
-        <v>-6.054755039999999</v>
+        <v>-5.766576239999999</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1245418555559135</v>
+        <v>0.123371111961366</v>
       </c>
       <c r="T51">
-        <v>1.136309458275226</v>
+        <v>1.135065356438183</v>
       </c>
       <c r="U51">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V51">
-        <v>0.06125260938705952</v>
+        <v>0.06341995811333</v>
       </c>
       <c r="W51">
-        <v>0.1785497536945813</v>
+        <v>0.1720497536945813</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         </is>
       </c>
       <c r="Y51">
-        <v>0.2784209517593614</v>
+        <v>0.2882725368787727</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5455,13 +5455,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.1527497256438607</v>
+        <v>0.1489676464106415</v>
       </c>
       <c r="C52">
-        <v>13.21551878190246</v>
+        <v>14.69858131764019</v>
       </c>
       <c r="D52">
-        <v>69.33551878190246</v>
+        <v>70.8185813176402</v>
       </c>
       <c r="E52">
         <v>-28.90000000000001</v>
@@ -5488,37 +5488,37 @@
         <v>3.01</v>
       </c>
       <c r="M52">
-        <v>11.0316</v>
+        <v>10.6546</v>
       </c>
       <c r="N52">
-        <v>-8.021600000000001</v>
+        <v>-7.644600000000001</v>
       </c>
       <c r="O52">
-        <v>-1.764752</v>
+        <v>-1.681812</v>
       </c>
       <c r="P52">
-        <v>-6.256848000000001</v>
+        <v>-5.962788000000001</v>
       </c>
       <c r="Q52">
-        <v>-6.226848</v>
+        <v>-5.932788</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1267166926670318</v>
+        <v>0.1256525342005933</v>
       </c>
       <c r="T52">
-        <v>1.159035647440731</v>
+        <v>1.157766663566947</v>
       </c>
       <c r="U52">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V52">
-        <v>0.06002755719931831</v>
+        <v>0.06215155895106338</v>
       </c>
       <c r="W52">
-        <v>0.1787827586206897</v>
+        <v>0.1722827586206896</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="Y52">
-        <v>0.2728525327241742</v>
+        <v>0.2825070861411972</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.1544937256438607</v>
+        <v>0.1507116464106414</v>
       </c>
       <c r="C53">
-        <v>11.18366142718593</v>
+        <v>12.66519069563079</v>
       </c>
       <c r="D53">
-        <v>68.46366142718594</v>
+        <v>69.9451906956308</v>
       </c>
       <c r="E53">
         <v>-27.74</v>
@@ -5570,37 +5570,37 @@
         <v>3.01</v>
       </c>
       <c r="M53">
-        <v>11.252232</v>
+        <v>10.867692</v>
       </c>
       <c r="N53">
-        <v>-8.242232000000001</v>
+        <v>-7.857692000000002</v>
       </c>
       <c r="O53">
-        <v>-1.81329104</v>
+        <v>-1.72869224</v>
       </c>
       <c r="P53">
-        <v>-6.428940960000001</v>
+        <v>-6.128999760000001</v>
       </c>
       <c r="Q53">
-        <v>-6.398940960000001</v>
+        <v>-6.098999760000001</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1289802986398284</v>
+        <v>0.1280270757148911</v>
       </c>
       <c r="T53">
-        <v>1.182689436164011</v>
+        <v>1.18139455466015</v>
       </c>
       <c r="U53">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V53">
-        <v>0.05885054627384149</v>
+        <v>0.06093290093241507</v>
       </c>
       <c r="W53">
-        <v>0.1790066260987154</v>
+        <v>0.1725066260987153</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>0.2675024830629158</v>
+        <v>0.2769677315109776</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5619,13 +5619,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.1562377256438607</v>
+        <v>0.1524556464106415</v>
       </c>
       <c r="C54">
-        <v>9.173458072057535</v>
+        <v>10.65308031345788</v>
       </c>
       <c r="D54">
-        <v>67.61345807205754</v>
+        <v>69.09308031345789</v>
       </c>
       <c r="E54">
         <v>-26.58000000000001</v>
@@ -5652,37 +5652,37 @@
         <v>3.01</v>
       </c>
       <c r="M54">
-        <v>11.472864</v>
+        <v>11.080784</v>
       </c>
       <c r="N54">
-        <v>-8.462864000000001</v>
+        <v>-8.070784</v>
       </c>
       <c r="O54">
-        <v>-1.86183008</v>
+        <v>-1.77557248</v>
       </c>
       <c r="P54">
-        <v>-6.601033920000001</v>
+        <v>-6.29521152</v>
       </c>
       <c r="Q54">
-        <v>-6.571033920000001</v>
+        <v>-6.265211519999999</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1313382215281581</v>
+        <v>0.1305005564589513</v>
       </c>
       <c r="T54">
-        <v>1.207328799417428</v>
+        <v>1.20600694121557</v>
       </c>
       <c r="U54">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V54">
-        <v>0.05771880499934454</v>
+        <v>0.05976111437602249</v>
       </c>
       <c r="W54">
-        <v>0.1792218832891247</v>
+        <v>0.1727218832891247</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>0.2623582045424752</v>
+        <v>0.2716414289819205</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5701,13 +5701,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1579817256438607</v>
+        <v>0.1541996464106415</v>
       </c>
       <c r="C55">
-        <v>7.184111893118683</v>
+        <v>8.661481789572036</v>
       </c>
       <c r="D55">
-        <v>66.78411189311869</v>
+        <v>68.26148178957204</v>
       </c>
       <c r="E55">
         <v>-25.42</v>
@@ -5734,37 +5734,37 @@
         <v>3.01</v>
       </c>
       <c r="M55">
-        <v>11.693496</v>
+        <v>11.293876</v>
       </c>
       <c r="N55">
-        <v>-8.683496000000002</v>
+        <v>-8.283876000000001</v>
       </c>
       <c r="O55">
-        <v>-1.91036912</v>
+        <v>-1.82245272</v>
       </c>
       <c r="P55">
-        <v>-6.773126880000001</v>
+        <v>-6.461423280000001</v>
       </c>
       <c r="Q55">
-        <v>-6.743126880000001</v>
+        <v>-6.431423280000001</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1337964815606721</v>
+        <v>0.1330792917027588</v>
       </c>
       <c r="T55">
-        <v>1.233016646213543</v>
+        <v>1.231666663369093</v>
       </c>
       <c r="U55">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V55">
-        <v>0.05662977094275312</v>
+        <v>0.05863354618024847</v>
       </c>
       <c r="W55">
-        <v>0.1794290175666884</v>
+        <v>0.1729290175666884</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>0.2574080497397869</v>
+        <v>0.2665161190011294</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5783,13 +5783,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1597257256438607</v>
+        <v>0.1559436464106415</v>
       </c>
       <c r="C56">
-        <v>5.214864688558436</v>
+        <v>6.689663295181589</v>
       </c>
       <c r="D56">
-        <v>65.97486468855844</v>
+        <v>67.44966329518159</v>
       </c>
       <c r="E56">
         <v>-24.26000000000001</v>
@@ -5816,37 +5816,37 @@
         <v>3.01</v>
       </c>
       <c r="M56">
-        <v>11.914128</v>
+        <v>11.506968</v>
       </c>
       <c r="N56">
-        <v>-8.904128</v>
+        <v>-8.496968000000001</v>
       </c>
       <c r="O56">
-        <v>-1.95890816</v>
+        <v>-1.86933296</v>
       </c>
       <c r="P56">
-        <v>-6.94521984</v>
+        <v>-6.62763504</v>
       </c>
       <c r="Q56">
-        <v>-6.91521984</v>
+        <v>-6.59763504</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.136361622464165</v>
+        <v>0.1357701458702101</v>
       </c>
       <c r="T56">
-        <v>1.259821355913838</v>
+        <v>1.258442025616247</v>
       </c>
       <c r="U56">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V56">
-        <v>0.05558107148085029</v>
+        <v>0.05754773976950314</v>
       </c>
       <c r="W56">
-        <v>0.1796284802043423</v>
+        <v>0.1731284802043423</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>0.252641234003865</v>
+        <v>0.2615806353159233</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5865,13 +5865,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1614697256438608</v>
+        <v>0.1576876464106415</v>
       </c>
       <c r="C57">
-        <v>3.264994566209531</v>
+        <v>4.736927406229832</v>
       </c>
       <c r="D57">
-        <v>65.18499456620954</v>
+        <v>66.65692740622984</v>
       </c>
       <c r="E57">
         <v>-23.1</v>
@@ -5898,37 +5898,37 @@
         <v>3.01</v>
       </c>
       <c r="M57">
-        <v>12.13476</v>
+        <v>11.72006</v>
       </c>
       <c r="N57">
-        <v>-9.124760000000002</v>
+        <v>-8.71006</v>
       </c>
       <c r="O57">
-        <v>-2.007447200000001</v>
+        <v>-1.9162132</v>
       </c>
       <c r="P57">
-        <v>-7.117312800000001</v>
+        <v>-6.793846800000001</v>
       </c>
       <c r="Q57">
-        <v>-7.087312800000001</v>
+        <v>-6.7638468</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1390407696300353</v>
+        <v>0.1385805935562148</v>
       </c>
       <c r="T57">
-        <v>1.287817386045256</v>
+        <v>1.286407403963275</v>
       </c>
       <c r="U57">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V57">
-        <v>0.05457050654483483</v>
+        <v>0.05650141722823945</v>
       </c>
       <c r="W57">
-        <v>0.1798206896551724</v>
+        <v>0.1733206896551724</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>0.2480477570219765</v>
+        <v>0.2568246237647247</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5947,13 +5947,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1632137256438607</v>
+        <v>0.1594316464106415</v>
       </c>
       <c r="C58">
-        <v>1.33381379571523</v>
+        <v>2.802609105086987</v>
       </c>
       <c r="D58">
-        <v>64.41381379571524</v>
+        <v>65.882609105087</v>
       </c>
       <c r="E58">
         <v>-21.94</v>
@@ -5980,37 +5980,37 @@
         <v>3.01</v>
       </c>
       <c r="M58">
-        <v>12.355392</v>
+        <v>11.933152</v>
       </c>
       <c r="N58">
-        <v>-9.345392000000002</v>
+        <v>-8.923152000000002</v>
       </c>
       <c r="O58">
-        <v>-2.055986240000001</v>
+        <v>-1.96309344</v>
       </c>
       <c r="P58">
-        <v>-7.289405760000001</v>
+        <v>-6.960058560000001</v>
       </c>
       <c r="Q58">
-        <v>-7.259405760000001</v>
+        <v>-6.930058560000001</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1418416962125361</v>
+        <v>0.1415187888643106</v>
       </c>
       <c r="T58">
-        <v>1.31708596300083</v>
+        <v>1.315643935871531</v>
       </c>
       <c r="U58">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V58">
-        <v>0.05359603321367706</v>
+        <v>0.05549246334916373</v>
       </c>
       <c r="W58">
-        <v>0.1800060344827586</v>
+        <v>0.1735060344827586</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>0.2436183327894412</v>
+        <v>0.2522384697689261</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6029,13 +6029,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1649577256438608</v>
+        <v>0.1611756464106415</v>
       </c>
       <c r="C59">
-        <v>-0.5793331886250428</v>
+        <v>0.8860739199223673</v>
       </c>
       <c r="D59">
-        <v>63.66066681137496</v>
+        <v>65.12607391992238</v>
       </c>
       <c r="E59">
         <v>-20.78</v>
@@ -6062,37 +6062,37 @@
         <v>3.01</v>
       </c>
       <c r="M59">
-        <v>12.576024</v>
+        <v>12.146244</v>
       </c>
       <c r="N59">
-        <v>-9.566024000000002</v>
+        <v>-9.136244000000001</v>
       </c>
       <c r="O59">
-        <v>-2.104525280000001</v>
+        <v>-2.00997368</v>
       </c>
       <c r="P59">
-        <v>-7.461498720000002</v>
+        <v>-7.126270320000001</v>
       </c>
       <c r="Q59">
-        <v>-7.431498720000001</v>
+        <v>-7.096270320000001</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.144772898450037</v>
+        <v>0.1445936444192945</v>
       </c>
       <c r="T59">
-        <v>1.347715869117129</v>
+        <v>1.346240306473194</v>
       </c>
       <c r="U59">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V59">
-        <v>0.05265575192922659</v>
+        <v>0.05451891136058191</v>
       </c>
       <c r="W59">
-        <v>0.1801848759830611</v>
+        <v>0.1736848759830611</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>0.2393443269510299</v>
+        <v>0.2478132334571905</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6111,13 +6111,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1667017256438607</v>
+        <v>0.1629196464106415</v>
       </c>
       <c r="C60">
-        <v>-2.475071646520902</v>
+        <v>-1.013283809184301</v>
       </c>
       <c r="D60">
-        <v>62.9249283534791</v>
+        <v>64.3867161908157</v>
       </c>
       <c r="E60">
         <v>-19.62</v>
@@ -6144,37 +6144,37 @@
         <v>3.01</v>
       </c>
       <c r="M60">
-        <v>12.796656</v>
+        <v>12.359336</v>
       </c>
       <c r="N60">
-        <v>-9.786656000000001</v>
+        <v>-9.349336000000001</v>
       </c>
       <c r="O60">
-        <v>-2.15306432</v>
+        <v>-2.05685392</v>
       </c>
       <c r="P60">
-        <v>-7.63359168</v>
+        <v>-7.292482080000001</v>
       </c>
       <c r="Q60">
-        <v>-7.60359168</v>
+        <v>-7.262482080000001</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.1478436817464664</v>
+        <v>0.1478149216673729</v>
       </c>
       <c r="T60">
-        <v>1.379804342191346</v>
+        <v>1.378293647103508</v>
       </c>
       <c r="U60">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V60">
-        <v>0.05174789413734338</v>
+        <v>0.05357893013022705</v>
       </c>
       <c r="W60">
-        <v>0.1803575505350773</v>
+        <v>0.1738575505350773</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>0.235217700624288</v>
+        <v>0.243540591501032</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6193,13 +6193,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.1684457256438607</v>
+        <v>0.1646636464106415</v>
       </c>
       <c r="C61">
-        <v>-4.353998262943193</v>
+        <v>-2.896042547351328</v>
       </c>
       <c r="D61">
-        <v>62.20600173705681</v>
+        <v>63.66395745264867</v>
       </c>
       <c r="E61">
         <v>-18.46000000000001</v>
@@ -6226,37 +6226,37 @@
         <v>3.01</v>
       </c>
       <c r="M61">
-        <v>13.017288</v>
+        <v>12.572428</v>
       </c>
       <c r="N61">
-        <v>-10.007288</v>
+        <v>-9.562428000000001</v>
       </c>
       <c r="O61">
-        <v>-2.20160336</v>
+        <v>-2.10373416</v>
       </c>
       <c r="P61">
-        <v>-7.805684640000001</v>
+        <v>-7.45869384</v>
       </c>
       <c r="Q61">
-        <v>-7.775684640000001</v>
+        <v>-7.42869384</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.1510642593500388</v>
+        <v>0.1511933343909674</v>
       </c>
       <c r="T61">
-        <v>1.413458106635037</v>
+        <v>1.411910565325545</v>
       </c>
       <c r="U61">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V61">
-        <v>0.05087081118586298</v>
+        <v>0.0526708126703927</v>
       </c>
       <c r="W61">
-        <v>0.1805243717124489</v>
+        <v>0.1740243717124489</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>0.2312309599357408</v>
+        <v>0.2394127848654214</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6275,13 +6275,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.1701897256438607</v>
+        <v>0.1664076464106415</v>
       </c>
       <c r="C62">
-        <v>-6.216682762037891</v>
+        <v>-4.762755074297417</v>
       </c>
       <c r="D62">
-        <v>61.5033172379621</v>
+        <v>62.95724492570258</v>
       </c>
       <c r="E62">
         <v>-17.30000000000001</v>
@@ -6308,37 +6308,37 @@
         <v>3.01</v>
       </c>
       <c r="M62">
-        <v>13.23792</v>
+        <v>12.78552</v>
       </c>
       <c r="N62">
-        <v>-10.22792</v>
+        <v>-9.775519999999998</v>
       </c>
       <c r="O62">
-        <v>-2.2501424</v>
+        <v>-2.1506144</v>
       </c>
       <c r="P62">
-        <v>-7.9777776</v>
+        <v>-7.624905599999998</v>
       </c>
       <c r="Q62">
-        <v>-7.947777599999999</v>
+        <v>-7.594905599999998</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.1544458658337897</v>
+        <v>0.1547406677507416</v>
       </c>
       <c r="T62">
-        <v>1.448794559300913</v>
+        <v>1.447208329458683</v>
       </c>
       <c r="U62">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V62">
-        <v>0.05002296433276527</v>
+        <v>0.05179296579255283</v>
       </c>
       <c r="W62">
-        <v>0.180685632183908</v>
+        <v>0.174185632183908</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>0.2273771106034785</v>
+        <v>0.235422571784331</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6357,13 +6357,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.1719337256438608</v>
+        <v>0.1681516464106415</v>
       </c>
       <c r="C63">
-        <v>-8.063669412876372</v>
+        <v>-6.613949894315809</v>
       </c>
       <c r="D63">
-        <v>60.81633058712363</v>
+        <v>62.26605010568419</v>
       </c>
       <c r="E63">
         <v>-16.14</v>
@@ -6390,37 +6390,37 @@
         <v>3.01</v>
       </c>
       <c r="M63">
-        <v>13.458552</v>
+        <v>12.998612</v>
       </c>
       <c r="N63">
-        <v>-10.448552</v>
+        <v>-9.988612000000002</v>
       </c>
       <c r="O63">
-        <v>-2.29868144</v>
+        <v>-2.19749464</v>
       </c>
       <c r="P63">
-        <v>-8.14987056</v>
+        <v>-7.791117360000001</v>
       </c>
       <c r="Q63">
-        <v>-8.119870559999999</v>
+        <v>-7.761117360000001</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.1580008880346562</v>
+        <v>0.1584699156417863</v>
       </c>
       <c r="T63">
-        <v>1.485943137744527</v>
+        <v>1.48431623534224</v>
       </c>
       <c r="U63">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V63">
-        <v>0.04920291573714616</v>
+        <v>0.05094390077956015</v>
       </c>
       <c r="W63">
-        <v>0.1808416054267948</v>
+        <v>0.1743416054267948</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>0.223649616987028</v>
+        <v>0.231563185361637</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6439,13 +6439,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.1736777256438607</v>
+        <v>0.1698956464106415</v>
       </c>
       <c r="C64">
-        <v>-9.895478435405622</v>
+        <v>-8.450132554377745</v>
       </c>
       <c r="D64">
-        <v>60.14452156459438</v>
+        <v>61.58986744562225</v>
       </c>
       <c r="E64">
         <v>-14.98</v>
@@ -6472,37 +6472,37 @@
         <v>3.01</v>
       </c>
       <c r="M64">
-        <v>13.679184</v>
+        <v>13.211704</v>
       </c>
       <c r="N64">
-        <v>-10.669184</v>
+        <v>-10.201704</v>
       </c>
       <c r="O64">
-        <v>-2.34722048</v>
+        <v>-2.24437488</v>
       </c>
       <c r="P64">
-        <v>-8.321963520000001</v>
+        <v>-7.957329120000001</v>
       </c>
       <c r="Q64">
-        <v>-8.291963519999999</v>
+        <v>-7.92732912</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.1617430166671471</v>
+        <v>0.1623954397376227</v>
       </c>
       <c r="T64">
-        <v>1.525046904527277</v>
+        <v>1.523377188903877</v>
       </c>
       <c r="U64">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V64">
-        <v>0.0484093203220309</v>
+        <v>0.05012222496053498</v>
       </c>
       <c r="W64">
-        <v>0.1809925472747497</v>
+        <v>0.1744925472747497</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>0.2200423651001404</v>
+        <v>0.227828295275159</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6521,13 +6521,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.1754217256438608</v>
+        <v>0.1716396464106415</v>
       </c>
       <c r="C65">
-        <v>-11.71260731423182</v>
+        <v>-10.27178687727471</v>
       </c>
       <c r="D65">
-        <v>59.48739268576817</v>
+        <v>60.92821312272529</v>
       </c>
       <c r="E65">
         <v>-13.82000000000001</v>
@@ -6554,37 +6554,37 @@
         <v>3.01</v>
       </c>
       <c r="M65">
-        <v>13.899816</v>
+        <v>13.424796</v>
       </c>
       <c r="N65">
-        <v>-10.889816</v>
+        <v>-10.414796</v>
       </c>
       <c r="O65">
-        <v>-2.39575952</v>
+        <v>-2.29125512</v>
       </c>
       <c r="P65">
-        <v>-8.494056479999999</v>
+        <v>-8.12354088</v>
       </c>
       <c r="Q65">
-        <v>-8.46405648</v>
+        <v>-8.093540879999999</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.165687422523016</v>
+        <v>0.1665331543251261</v>
       </c>
       <c r="T65">
-        <v>1.56626438843342</v>
+        <v>1.564549545360739</v>
       </c>
       <c r="U65">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V65">
-        <v>0.0476409184121574</v>
+        <v>0.04932663408814554</v>
       </c>
       <c r="W65">
-        <v>0.1811386973180077</v>
+        <v>0.1746386973180077</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.2165496291461699</v>
+        <v>0.2242119731279343</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6603,13 +6603,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.1771657256438608</v>
+        <v>0.1733836464106415</v>
       </c>
       <c r="C66">
-        <v>-13.51553202720928</v>
+        <v>-12.07937611612002</v>
       </c>
       <c r="D66">
-        <v>58.84446797279072</v>
+        <v>60.28062388387998</v>
       </c>
       <c r="E66">
         <v>-12.66000000000001</v>
@@ -6636,37 +6636,37 @@
         <v>3.01</v>
       </c>
       <c r="M66">
-        <v>14.120448</v>
+        <v>13.637888</v>
       </c>
       <c r="N66">
-        <v>-11.110448</v>
+        <v>-10.627888</v>
       </c>
       <c r="O66">
-        <v>-2.44429856</v>
+        <v>-2.33813536</v>
       </c>
       <c r="P66">
-        <v>-8.66614944</v>
+        <v>-8.28975264</v>
       </c>
       <c r="Q66">
-        <v>-8.636149440000001</v>
+        <v>-8.259752639999999</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.1698509620375442</v>
+        <v>0.1709007419452684</v>
       </c>
       <c r="T66">
-        <v>1.609771732556571</v>
+        <v>1.608009254954093</v>
       </c>
       <c r="U66">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V66">
-        <v>0.04689652906196744</v>
+        <v>0.04855590543051828</v>
       </c>
       <c r="W66">
-        <v>0.1812802801724138</v>
+        <v>0.1747802801724138</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.2131660411907611</v>
+        <v>0.2207086610478104</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6685,13 +6685,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.1789097256438608</v>
+        <v>0.1751276464106415</v>
       </c>
       <c r="C67">
-        <v>-15.30470819521182</v>
+        <v>-13.87334403599964</v>
       </c>
       <c r="D67">
-        <v>58.21529180478819</v>
+        <v>59.64665596400036</v>
       </c>
       <c r="E67">
         <v>-11.5</v>
@@ -6718,37 +6718,37 @@
         <v>3.01</v>
       </c>
       <c r="M67">
-        <v>14.34108</v>
+        <v>13.85098</v>
       </c>
       <c r="N67">
-        <v>-11.33108</v>
+        <v>-10.84098</v>
       </c>
       <c r="O67">
-        <v>-2.492837600000001</v>
+        <v>-2.3850156</v>
       </c>
       <c r="P67">
-        <v>-8.838242400000002</v>
+        <v>-8.455964400000001</v>
       </c>
       <c r="Q67">
-        <v>-8.808242400000001</v>
+        <v>-8.425964400000002</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.1742524180957598</v>
+        <v>0.1755179060008475</v>
       </c>
       <c r="T67">
-        <v>1.655765210629616</v>
+        <v>1.65395237652421</v>
       </c>
       <c r="U67">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V67">
-        <v>0.04617504399947563</v>
+        <v>0.04780889150081798</v>
       </c>
       <c r="W67">
-        <v>0.1814175066312997</v>
+        <v>0.1749175066312997</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.2098865636339801</v>
+        <v>0.2173131431855363</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6767,13 +6767,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.1806537256438607</v>
+        <v>0.1768716464106415</v>
       </c>
       <c r="C68">
-        <v>-17.08057215892278</v>
+        <v>-15.65411592807917</v>
       </c>
       <c r="D68">
-        <v>57.59942784107722</v>
+        <v>59.02588407192083</v>
       </c>
       <c r="E68">
         <v>-10.34</v>
@@ -6800,37 +6800,37 @@
         <v>3.01</v>
       </c>
       <c r="M68">
-        <v>14.561712</v>
+        <v>14.064072</v>
       </c>
       <c r="N68">
-        <v>-11.551712</v>
+        <v>-11.054072</v>
       </c>
       <c r="O68">
-        <v>-2.541376640000001</v>
+        <v>-2.43189584</v>
       </c>
       <c r="P68">
-        <v>-9.010335360000001</v>
+        <v>-8.622176160000002</v>
       </c>
       <c r="Q68">
-        <v>-8.980335360000002</v>
+        <v>-8.592176160000001</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.1789127833338703</v>
+        <v>0.180406667942049</v>
       </c>
       <c r="T68">
-        <v>1.704464187412839</v>
+        <v>1.702598034657275</v>
       </c>
       <c r="U68">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V68">
-        <v>0.04547542212069569</v>
+        <v>0.0470845143568662</v>
       </c>
       <c r="W68">
-        <v>0.1815505747126437</v>
+        <v>0.1750505747126437</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.2067064641849804</v>
+        <v>0.2140205198039372</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6849,13 +6849,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.1823977256438607</v>
+        <v>0.1786156464106415</v>
       </c>
       <c r="C69">
-        <v>-18.84354198799223</v>
+        <v>-17.42209956103751</v>
       </c>
       <c r="D69">
-        <v>56.99645801200776</v>
+        <v>58.41790043896248</v>
       </c>
       <c r="E69">
         <v>-9.180000000000007</v>
@@ -6882,37 +6882,37 @@
         <v>3.01</v>
       </c>
       <c r="M69">
-        <v>14.782344</v>
+        <v>14.277164</v>
       </c>
       <c r="N69">
-        <v>-11.772344</v>
+        <v>-11.267164</v>
       </c>
       <c r="O69">
-        <v>-2.58991568</v>
+        <v>-2.47877608</v>
       </c>
       <c r="P69">
-        <v>-9.18242832</v>
+        <v>-8.78838792</v>
       </c>
       <c r="Q69">
-        <v>-9.152428319999999</v>
+        <v>-8.758387920000001</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.1838555949500482</v>
+        <v>0.1855917184857474</v>
       </c>
       <c r="T69">
-        <v>1.756114617334441</v>
+        <v>1.754191914495375</v>
       </c>
       <c r="U69">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V69">
-        <v>0.04479668447710322</v>
+        <v>0.04638176041124133</v>
       </c>
       <c r="W69">
-        <v>0.181679670612455</v>
+        <v>0.175179670612455</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.2036212930777419</v>
+        <v>0.2108261836874606</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6931,13 +6931,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.1841417256438607</v>
+        <v>0.1803596464106415</v>
       </c>
       <c r="C70">
-        <v>-20.59401842746533</v>
+        <v>-19.17768607429955</v>
       </c>
       <c r="D70">
-        <v>56.40598157253468</v>
+        <v>57.82231392570046</v>
       </c>
       <c r="E70">
         <v>-8.019999999999996</v>
@@ -6964,37 +6964,37 @@
         <v>3.01</v>
       </c>
       <c r="M70">
-        <v>15.002976</v>
+        <v>14.490256</v>
       </c>
       <c r="N70">
-        <v>-11.992976</v>
+        <v>-11.480256</v>
       </c>
       <c r="O70">
-        <v>-2.63845472</v>
+        <v>-2.52565632</v>
       </c>
       <c r="P70">
-        <v>-9.354521280000002</v>
+        <v>-8.954599680000001</v>
       </c>
       <c r="Q70">
-        <v>-9.324521280000003</v>
+        <v>-8.92459968</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.1891073322922372</v>
+        <v>0.191100834688427</v>
       </c>
       <c r="T70">
-        <v>1.810993199126142</v>
+        <v>1.809010411823355</v>
       </c>
       <c r="U70">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V70">
-        <v>0.04413790970538111</v>
+        <v>0.04569967569931131</v>
       </c>
       <c r="W70">
-        <v>0.1818049695740365</v>
+        <v>0.1753049695740365</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.2006268622971868</v>
+        <v>0.2077257986332333</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7013,13 +7013,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.1858857256438607</v>
+        <v>0.1821036464106415</v>
       </c>
       <c r="C71">
-        <v>-22.33238578598476</v>
+        <v>-20.92125081717995</v>
       </c>
       <c r="D71">
-        <v>55.82761421401524</v>
+        <v>57.23874918282006</v>
       </c>
       <c r="E71">
         <v>-6.859999999999999</v>
@@ -7046,37 +7046,37 @@
         <v>3.01</v>
       </c>
       <c r="M71">
-        <v>15.223608</v>
+        <v>14.703348</v>
       </c>
       <c r="N71">
-        <v>-12.213608</v>
+        <v>-11.693348</v>
       </c>
       <c r="O71">
-        <v>-2.68699376</v>
+        <v>-2.572536560000001</v>
       </c>
       <c r="P71">
-        <v>-9.526614240000002</v>
+        <v>-9.120811440000001</v>
       </c>
       <c r="Q71">
-        <v>-9.496614240000003</v>
+        <v>-9.09081144</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.1946978913984384</v>
+        <v>0.1969653777428924</v>
       </c>
       <c r="T71">
-        <v>1.869412334581824</v>
+        <v>1.867365586398302</v>
       </c>
       <c r="U71">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V71">
-        <v>0.04349822985457848</v>
+        <v>0.04503736155874158</v>
       </c>
       <c r="W71">
-        <v>0.1819266366816592</v>
+        <v>0.1754266366816592</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.1977192266117204</v>
+        <v>0.2047152798124617</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7095,13 +7095,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.1876297256438607</v>
+        <v>0.1838476464106415</v>
       </c>
       <c r="C72">
-        <v>-24.05901276990394</v>
+        <v>-22.6531541377208</v>
       </c>
       <c r="D72">
-        <v>55.26098723009606</v>
+        <v>56.6668458622792</v>
       </c>
       <c r="E72">
         <v>-5.700000000000003</v>
@@ -7128,37 +7128,37 @@
         <v>3.01</v>
       </c>
       <c r="M72">
-        <v>15.44424</v>
+        <v>14.91644</v>
       </c>
       <c r="N72">
-        <v>-12.43424</v>
+        <v>-11.90644</v>
       </c>
       <c r="O72">
-        <v>-2.7355328</v>
+        <v>-2.6194168</v>
       </c>
       <c r="P72">
-        <v>-9.698707200000001</v>
+        <v>-9.287023200000002</v>
       </c>
       <c r="Q72">
-        <v>-9.6687072</v>
+        <v>-9.257023200000003</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.2006611544450531</v>
+        <v>0.2032208903343222</v>
       </c>
       <c r="T72">
-        <v>1.931726079067885</v>
+        <v>1.929611105944912</v>
       </c>
       <c r="U72">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V72">
-        <v>0.04287682657094165</v>
+        <v>0.04439397067933099</v>
       </c>
       <c r="W72">
-        <v>0.1820448275862069</v>
+        <v>0.1755448275862069</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.1948946662315529</v>
+        <v>0.2017907758151408</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7177,13 +7177,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.1893737256438607</v>
+        <v>0.1855916464106415</v>
       </c>
       <c r="C73">
-        <v>-25.77425326711508</v>
+        <v>-24.37374212470694</v>
       </c>
       <c r="D73">
-        <v>54.70574673288492</v>
+        <v>56.10625787529306</v>
       </c>
       <c r="E73">
         <v>-4.540000000000006</v>
@@ -7210,37 +7210,37 @@
         <v>3.01</v>
       </c>
       <c r="M73">
-        <v>15.664872</v>
+        <v>15.129532</v>
       </c>
       <c r="N73">
-        <v>-12.654872</v>
+        <v>-12.119532</v>
       </c>
       <c r="O73">
-        <v>-2.78407184</v>
+        <v>-2.66629704</v>
       </c>
       <c r="P73">
-        <v>-9.870800160000002</v>
+        <v>-9.45323496</v>
       </c>
       <c r="Q73">
-        <v>-9.840800160000001</v>
+        <v>-9.423234959999998</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.2070356770121238</v>
+        <v>0.2099078175872298</v>
       </c>
       <c r="T73">
-        <v>1.998337323173673</v>
+        <v>1.996149419943012</v>
       </c>
       <c r="U73">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V73">
-        <v>0.04227292760515374</v>
+        <v>0.04376870348666436</v>
       </c>
       <c r="W73">
-        <v>0.1821596891694998</v>
+        <v>0.1756596891694998</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.192149670932517</v>
+        <v>0.1989486522121107</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7259,13 +7259,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.1911177256438608</v>
+        <v>0.1873356464106415</v>
       </c>
       <c r="C74">
-        <v>-27.47844708409375</v>
+        <v>-26.08334730606945</v>
       </c>
       <c r="D74">
-        <v>54.16155291590624</v>
+        <v>55.55665269393054</v>
       </c>
       <c r="E74">
         <v>-3.38000000000001</v>
@@ -7292,37 +7292,37 @@
         <v>3.01</v>
       </c>
       <c r="M74">
-        <v>15.885504</v>
+        <v>15.342624</v>
       </c>
       <c r="N74">
-        <v>-12.875504</v>
+        <v>-12.332624</v>
       </c>
       <c r="O74">
-        <v>-2.83261088</v>
+        <v>-2.71317728</v>
       </c>
       <c r="P74">
-        <v>-10.04289312</v>
+        <v>-9.619446719999999</v>
       </c>
       <c r="Q74">
-        <v>-10.01289312</v>
+        <v>-9.589446719999998</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.2138655226196997</v>
+        <v>0.2170723825010594</v>
       </c>
       <c r="T74">
-        <v>2.069706513287019</v>
+        <v>2.067440470655262</v>
       </c>
       <c r="U74">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V74">
-        <v>0.04168580361063772</v>
+        <v>0.04316080482712735</v>
       </c>
       <c r="W74">
-        <v>0.1822713601532567</v>
+        <v>0.1757713601532567</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.1894809255028987</v>
+        <v>0.1961854764869425</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7341,13 +7341,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.1928617256438607</v>
+        <v>0.1890796464106415</v>
       </c>
       <c r="C75">
-        <v>-29.17192063938559</v>
+        <v>-27.78228930663887</v>
       </c>
       <c r="D75">
-        <v>53.6280793606144</v>
+        <v>55.01771069336112</v>
       </c>
       <c r="E75">
         <v>-2.220000000000013</v>
@@ -7374,37 +7374,37 @@
         <v>3.01</v>
       </c>
       <c r="M75">
-        <v>16.106136</v>
+        <v>15.555716</v>
       </c>
       <c r="N75">
-        <v>-13.096136</v>
+        <v>-12.545716</v>
       </c>
       <c r="O75">
-        <v>-2.88114992</v>
+        <v>-2.76005752</v>
       </c>
       <c r="P75">
-        <v>-10.21498608</v>
+        <v>-9.785658479999999</v>
       </c>
       <c r="Q75">
-        <v>-10.18498608</v>
+        <v>-9.755658479999997</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.2212012827167255</v>
+        <v>0.2247676559270246</v>
       </c>
       <c r="T75">
-        <v>2.146362310075427</v>
+        <v>2.14401233993879</v>
       </c>
       <c r="U75">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V75">
-        <v>0.04111476520501255</v>
+        <v>0.04256956092538589</v>
       </c>
       <c r="W75">
-        <v>0.1823799716580066</v>
+        <v>0.1758799716580066</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.1868852963864207</v>
+        <v>0.1934980042062995</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7423,13 +7423,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.1946057256438607</v>
+        <v>0.1908236464106415</v>
       </c>
       <c r="C76">
-        <v>-30.85498761650912</v>
+        <v>-29.47087546798208</v>
       </c>
       <c r="D76">
-        <v>53.10501238349088</v>
+        <v>54.48912453201792</v>
       </c>
       <c r="E76">
         <v>-1.060000000000002</v>
@@ -7456,37 +7456,37 @@
         <v>3.01</v>
       </c>
       <c r="M76">
-        <v>16.326768</v>
+        <v>15.768808</v>
       </c>
       <c r="N76">
-        <v>-13.316768</v>
+        <v>-12.758808</v>
       </c>
       <c r="O76">
-        <v>-2.92968896</v>
+        <v>-2.80693776</v>
       </c>
       <c r="P76">
-        <v>-10.38707904</v>
+        <v>-9.95187024</v>
       </c>
       <c r="Q76">
-        <v>-10.35707904</v>
+        <v>-9.921870240000001</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.2291013320519843</v>
+        <v>0.2330548734626793</v>
       </c>
       <c r="T76">
-        <v>2.22891470661679</v>
+        <v>2.226474353013359</v>
       </c>
       <c r="U76">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V76">
-        <v>0.04055916026980967</v>
+        <v>0.04199429658855634</v>
       </c>
       <c r="W76">
-        <v>0.1824856477166822</v>
+        <v>0.1759856477166822</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.1843598194082258</v>
+        <v>0.1908831663116197</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7505,13 +7505,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.1963497256438607</v>
+        <v>0.1925676464106415</v>
       </c>
       <c r="C77">
-        <v>-32.52794957901851</v>
+        <v>-31.1494014328483</v>
       </c>
       <c r="D77">
-        <v>52.59205042098149</v>
+        <v>53.9705985671517</v>
       </c>
       <c r="E77">
         <v>0.09999999999999432</v>
@@ -7538,37 +7538,37 @@
         <v>3.01</v>
       </c>
       <c r="M77">
-        <v>16.5474</v>
+        <v>15.9819</v>
       </c>
       <c r="N77">
-        <v>-13.5374</v>
+        <v>-12.9719</v>
       </c>
       <c r="O77">
-        <v>-2.978228</v>
+        <v>-2.853818</v>
       </c>
       <c r="P77">
-        <v>-10.559172</v>
+        <v>-10.118082</v>
       </c>
       <c r="Q77">
-        <v>-10.529172</v>
+        <v>-10.088082</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.2376333853340636</v>
+        <v>0.2420050684011866</v>
       </c>
       <c r="T77">
-        <v>2.318071294881462</v>
+        <v>2.315533327133894</v>
       </c>
       <c r="U77">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V77">
-        <v>0.04001837146621221</v>
+        <v>0.04143437263404226</v>
       </c>
       <c r="W77">
-        <v>0.1825885057471264</v>
+        <v>0.1760885057471265</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>0.1819016884827828</v>
+        <v>0.1883380574274648</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7587,13 +7587,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.1980937256438607</v>
+        <v>0.1943116464106415</v>
       </c>
       <c r="C78">
-        <v>-34.19109655026086</v>
+        <v>-32.8181516965598</v>
       </c>
       <c r="D78">
-        <v>52.08890344973913</v>
+        <v>53.46184830344019</v>
       </c>
       <c r="E78">
         <v>1.259999999999991</v>
@@ -7620,37 +7620,37 @@
         <v>3.01</v>
       </c>
       <c r="M78">
-        <v>16.768032</v>
+        <v>16.194992</v>
       </c>
       <c r="N78">
-        <v>-13.758032</v>
+        <v>-13.184992</v>
       </c>
       <c r="O78">
-        <v>-3.026767040000001</v>
+        <v>-2.90069824</v>
       </c>
       <c r="P78">
-        <v>-10.73126496</v>
+        <v>-10.28429376</v>
       </c>
       <c r="Q78">
-        <v>-10.70126496</v>
+        <v>-10.25429376</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.2468764430563163</v>
+        <v>0.2517011129179026</v>
       </c>
       <c r="T78">
-        <v>2.414657598834856</v>
+        <v>2.41201388243114</v>
       </c>
       <c r="U78">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V78">
-        <v>0.03949181394691995</v>
+        <v>0.04088918352043644</v>
       </c>
       <c r="W78">
-        <v>0.1826886569872958</v>
+        <v>0.1761886569872958</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>0.1795082452132725</v>
+        <v>0.185859925092893</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7669,13 +7669,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.1998377256438608</v>
+        <v>0.1960556464106414</v>
       </c>
       <c r="C79">
-        <v>-35.84470756016946</v>
+        <v>-34.47740012750783</v>
       </c>
       <c r="D79">
-        <v>51.59529243983054</v>
+        <v>52.96259987249217</v>
       </c>
       <c r="E79">
         <v>2.420000000000002</v>
@@ -7702,37 +7702,37 @@
         <v>3.01</v>
       </c>
       <c r="M79">
-        <v>16.988664</v>
+        <v>16.408084</v>
       </c>
       <c r="N79">
-        <v>-13.978664</v>
+        <v>-13.398084</v>
       </c>
       <c r="O79">
-        <v>-3.075306080000001</v>
+        <v>-2.947578480000001</v>
       </c>
       <c r="P79">
-        <v>-10.90335792</v>
+        <v>-10.45050552</v>
       </c>
       <c r="Q79">
-        <v>-10.87335792</v>
+        <v>-10.42050552</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.2569232449283301</v>
+        <v>0.2622402917404201</v>
       </c>
       <c r="T79">
-        <v>2.519642711827676</v>
+        <v>2.516884051232493</v>
       </c>
       <c r="U79">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V79">
-        <v>0.03897893324631059</v>
+        <v>0.04035815516302817</v>
       </c>
       <c r="W79">
-        <v>0.1827862068965517</v>
+        <v>0.1762862068965517</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>0.1771769693014118</v>
+        <v>0.1834461598319462</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7751,13 +7751,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.2015817256438607</v>
+        <v>0.1977996464106415</v>
       </c>
       <c r="C80">
-        <v>-37.48905116125945</v>
+        <v>-36.12741045875487</v>
       </c>
       <c r="D80">
-        <v>51.11094883874055</v>
+        <v>52.47258954124514</v>
       </c>
       <c r="E80">
         <v>3.579999999999998</v>
@@ -7784,37 +7784,37 @@
         <v>3.01</v>
       </c>
       <c r="M80">
-        <v>17.209296</v>
+        <v>16.621176</v>
       </c>
       <c r="N80">
-        <v>-14.199296</v>
+        <v>-13.611176</v>
       </c>
       <c r="O80">
-        <v>-3.12384512</v>
+        <v>-2.99445872</v>
       </c>
       <c r="P80">
-        <v>-11.07545088</v>
+        <v>-10.61671728</v>
       </c>
       <c r="Q80">
-        <v>-11.04545088</v>
+        <v>-10.58671728</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.2678833924250723</v>
+        <v>0.2737375777286211</v>
       </c>
       <c r="T80">
-        <v>2.634171926001661</v>
+        <v>2.631287871743062</v>
       </c>
       <c r="U80">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V80">
-        <v>0.03847920333289635</v>
+        <v>0.03984074291734832</v>
       </c>
       <c r="W80">
-        <v>0.1828812555260831</v>
+        <v>0.1763812555260831</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>0.1749054696949834</v>
+        <v>0.1810942859879469</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7833,13 +7833,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.2033257256438607</v>
+        <v>0.1995436464106415</v>
       </c>
       <c r="C81">
-        <v>-39.12438591583093</v>
+        <v>-37.76843675259705</v>
       </c>
       <c r="D81">
-        <v>50.63561408416906</v>
+        <v>51.99156324740295</v>
       </c>
       <c r="E81">
         <v>4.739999999999995</v>
@@ -7866,37 +7866,37 @@
         <v>3.01</v>
       </c>
       <c r="M81">
-        <v>17.429928</v>
+        <v>16.834268</v>
       </c>
       <c r="N81">
-        <v>-14.419928</v>
+        <v>-13.824268</v>
       </c>
       <c r="O81">
-        <v>-3.17238416</v>
+        <v>-3.04133896</v>
       </c>
       <c r="P81">
-        <v>-11.24754384</v>
+        <v>-10.78292904</v>
       </c>
       <c r="Q81">
-        <v>-11.21754384</v>
+        <v>-10.75292904</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.2798873634929329</v>
+        <v>0.2863298433347459</v>
       </c>
       <c r="T81">
-        <v>2.759608684382692</v>
+        <v>2.756587294207017</v>
       </c>
       <c r="U81">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V81">
-        <v>0.03799212480969513</v>
+        <v>0.0393364297158629</v>
       </c>
       <c r="W81">
-        <v>0.182973897861196</v>
+        <v>0.176473897861196</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.1726914764077052</v>
+        <v>0.1788019532539222</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.2050697256438608</v>
+        <v>0.2012876464106415</v>
       </c>
       <c r="C82">
-        <v>-40.75096085623614</v>
+        <v>-39.40072383980645</v>
       </c>
       <c r="D82">
-        <v>50.16903914376387</v>
+        <v>51.51927616019356</v>
       </c>
       <c r="E82">
         <v>5.900000000000006</v>
@@ -7948,37 +7948,37 @@
         <v>3.01</v>
       </c>
       <c r="M82">
-        <v>17.65056</v>
+        <v>17.04736</v>
       </c>
       <c r="N82">
-        <v>-14.64056</v>
+        <v>-14.03736</v>
       </c>
       <c r="O82">
-        <v>-3.220923200000001</v>
+        <v>-3.0882192</v>
       </c>
       <c r="P82">
-        <v>-11.4196368</v>
+        <v>-10.9491408</v>
       </c>
       <c r="Q82">
-        <v>-11.3896368</v>
+        <v>-10.9191408</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.2930917316675796</v>
+        <v>0.3001813355014832</v>
       </c>
       <c r="T82">
-        <v>2.897589118601827</v>
+        <v>2.894416658917368</v>
       </c>
       <c r="U82">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V82">
-        <v>0.03751722324957395</v>
+        <v>0.03884472434441461</v>
       </c>
       <c r="W82">
-        <v>0.1830642241379311</v>
+        <v>0.176564224137931</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.1705328329526088</v>
+        <v>0.1765669288382482</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -7997,13 +7997,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.2068137256438607</v>
+        <v>0.2030316464106415</v>
       </c>
       <c r="C83">
-        <v>-42.36901591993275</v>
+        <v>-41.02450773514861</v>
       </c>
       <c r="D83">
-        <v>49.71098408006726</v>
+        <v>51.0554922648514</v>
       </c>
       <c r="E83">
         <v>7.060000000000002</v>
@@ -8030,37 +8030,37 @@
         <v>3.01</v>
       </c>
       <c r="M83">
-        <v>17.871192</v>
+        <v>17.260452</v>
       </c>
       <c r="N83">
-        <v>-14.861192</v>
+        <v>-14.250452</v>
       </c>
       <c r="O83">
-        <v>-3.26946224</v>
+        <v>-3.13509944</v>
       </c>
       <c r="P83">
-        <v>-11.59172976</v>
+        <v>-11.11535256</v>
       </c>
       <c r="Q83">
-        <v>-11.56172976</v>
+        <v>-11.08535256</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.3076860333342943</v>
+        <v>0.3154908794752456</v>
       </c>
       <c r="T83">
-        <v>3.050093809054555</v>
+        <v>3.046754377807756</v>
       </c>
       <c r="U83">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V83">
-        <v>0.0370540476539002</v>
+        <v>0.03836515984633542</v>
       </c>
       <c r="W83">
-        <v>0.1831523201362282</v>
+        <v>0.1766523201362282</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.16842748933591</v>
+        <v>0.1743870902106156</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8079,13 +8079,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.2085577256438608</v>
+        <v>0.2047756464106414</v>
       </c>
       <c r="C84">
-        <v>-43.97878236092</v>
+        <v>-42.64001603065693</v>
       </c>
       <c r="D84">
-        <v>49.26121763908</v>
+        <v>50.59998396934307</v>
       </c>
       <c r="E84">
         <v>8.219999999999999</v>
@@ -8112,37 +8112,37 @@
         <v>3.01</v>
       </c>
       <c r="M84">
-        <v>18.091824</v>
+        <v>17.473544</v>
       </c>
       <c r="N84">
-        <v>-15.081824</v>
+        <v>-14.463544</v>
       </c>
       <c r="O84">
-        <v>-3.318001280000001</v>
+        <v>-3.18197968</v>
       </c>
       <c r="P84">
-        <v>-11.76382272</v>
+        <v>-11.28156432</v>
       </c>
       <c r="Q84">
-        <v>-11.73382272</v>
+        <v>-11.25156432</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.3239019240750884</v>
+        <v>0.332501483890537</v>
       </c>
       <c r="T84">
-        <v>3.219543465113142</v>
+        <v>3.216018509908187</v>
       </c>
       <c r="U84">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V84">
-        <v>0.03660216902397458</v>
+        <v>0.03789729204333133</v>
       </c>
       <c r="W84">
-        <v>0.18323826745164</v>
+        <v>0.17673826745164</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.1663734955635208</v>
+        <v>0.1722604183787788</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8161,13 +8161,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.2103017256438607</v>
+        <v>0.2065196464106415</v>
       </c>
       <c r="C85">
-        <v>-45.58048313903988</v>
+        <v>-44.247468268041</v>
       </c>
       <c r="D85">
-        <v>48.81951686096012</v>
+        <v>50.152531731959</v>
       </c>
       <c r="E85">
         <v>9.379999999999995</v>
@@ -8194,37 +8194,37 @@
         <v>3.01</v>
       </c>
       <c r="M85">
-        <v>18.312456</v>
+        <v>17.686636</v>
       </c>
       <c r="N85">
-        <v>-15.302456</v>
+        <v>-14.676636</v>
       </c>
       <c r="O85">
-        <v>-3.36654032</v>
+        <v>-3.22885992</v>
       </c>
       <c r="P85">
-        <v>-11.93591568</v>
+        <v>-11.44777608</v>
       </c>
       <c r="Q85">
-        <v>-11.90591568</v>
+        <v>-11.41777608</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.3420255666677408</v>
+        <v>0.3515133358840979</v>
       </c>
       <c r="T85">
-        <v>3.40892837482568</v>
+        <v>3.405196069314551</v>
       </c>
       <c r="U85">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V85">
-        <v>0.03616117903573392</v>
+        <v>0.03744069816329119</v>
       </c>
       <c r="W85">
-        <v>0.1833221437474034</v>
+        <v>0.1768221437474034</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.1643689956169724</v>
+        <v>0.1701849916513236</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8243,13 +8243,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.2120457256438607</v>
+        <v>0.2082636464106414</v>
       </c>
       <c r="C86">
-        <v>-47.17433328852047</v>
+        <v>-45.84707629150883</v>
       </c>
       <c r="D86">
-        <v>48.38566671147953</v>
+        <v>49.71292370849117</v>
       </c>
       <c r="E86">
         <v>10.53999999999999</v>
@@ -8276,37 +8276,37 @@
         <v>3.01</v>
       </c>
       <c r="M86">
-        <v>18.533088</v>
+        <v>17.899728</v>
       </c>
       <c r="N86">
-        <v>-15.523088</v>
+        <v>-14.889728</v>
       </c>
       <c r="O86">
-        <v>-3.41507936</v>
+        <v>-3.27574016</v>
       </c>
       <c r="P86">
-        <v>-12.10800864</v>
+        <v>-11.61398784</v>
       </c>
       <c r="Q86">
-        <v>-12.07800864</v>
+        <v>-11.58398784</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.3624146645844744</v>
+        <v>0.3729016693768539</v>
       </c>
       <c r="T86">
-        <v>3.621986398252283</v>
+        <v>3.618020823646709</v>
       </c>
       <c r="U86">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V86">
-        <v>0.03573068880911805</v>
+        <v>0.03699497556610916</v>
       </c>
       <c r="W86">
-        <v>0.1834040229885057</v>
+        <v>0.1769040229885057</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.1624122218596274</v>
+        <v>0.1681589798459507</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8325,13 +8325,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2137897256438608</v>
+        <v>0.2100076464106415</v>
       </c>
       <c r="C87">
-        <v>-48.76054026704121</v>
+        <v>-47.43904458219479</v>
       </c>
       <c r="D87">
-        <v>47.95945973295878</v>
+        <v>49.2809554178052</v>
       </c>
       <c r="E87">
         <v>11.69999999999999</v>
@@ -8358,37 +8358,37 @@
         <v>3.01</v>
       </c>
       <c r="M87">
-        <v>18.75372</v>
+        <v>18.11282</v>
       </c>
       <c r="N87">
-        <v>-15.74372</v>
+        <v>-15.10282</v>
       </c>
       <c r="O87">
-        <v>-3.463618400000001</v>
+        <v>-3.3226204</v>
       </c>
       <c r="P87">
-        <v>-12.2801016</v>
+        <v>-11.7801996</v>
       </c>
       <c r="Q87">
-        <v>-12.2501016</v>
+        <v>-11.7501996</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.385522308890106</v>
+        <v>0.3971417806686441</v>
       </c>
       <c r="T87">
-        <v>3.863452158135769</v>
+        <v>3.859222211889823</v>
       </c>
       <c r="U87">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V87">
-        <v>0.03531032776430489</v>
+        <v>0.03655974055944905</v>
       </c>
       <c r="W87">
-        <v>0.1834839756592292</v>
+        <v>0.1769839756592292</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.1605014898377495</v>
+        <v>0.1661806389065866</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8407,13 +8407,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2155337256438608</v>
+        <v>0.2117516464106415</v>
       </c>
       <c r="C88">
-        <v>-50.3393042865109</v>
+        <v>-49.02357057530194</v>
       </c>
       <c r="D88">
-        <v>47.5406957134891</v>
+        <v>48.85642942469806</v>
       </c>
       <c r="E88">
         <v>12.86</v>
@@ -8440,37 +8440,37 @@
         <v>3.01</v>
       </c>
       <c r="M88">
-        <v>18.974352</v>
+        <v>18.325912</v>
       </c>
       <c r="N88">
-        <v>-15.964352</v>
+        <v>-15.315912</v>
       </c>
       <c r="O88">
-        <v>-3.512157440000001</v>
+        <v>-3.36950064</v>
       </c>
       <c r="P88">
-        <v>-12.45219456</v>
+        <v>-11.94641136</v>
       </c>
       <c r="Q88">
-        <v>-12.42219456</v>
+        <v>-11.91641136</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.4119310452393993</v>
+        <v>0.4248447650021188</v>
       </c>
       <c r="T88">
-        <v>4.139413026574038</v>
+        <v>4.134880941310525</v>
       </c>
       <c r="U88">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V88">
-        <v>0.0348997425577432</v>
+        <v>0.03613462729712987</v>
       </c>
       <c r="W88">
-        <v>0.1835620689655172</v>
+        <v>0.1770620689655172</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.1586351934442873</v>
+        <v>0.1642483058960449</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8489,13 +8489,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2172777256438607</v>
+        <v>0.2134956464106414</v>
       </c>
       <c r="C89">
-        <v>-51.91081862666621</v>
+        <v>-50.60084496099243</v>
       </c>
       <c r="D89">
-        <v>47.12918137333379</v>
+        <v>48.43915503900757</v>
       </c>
       <c r="E89">
         <v>14.02</v>
@@ -8522,37 +8522,37 @@
         <v>3.01</v>
       </c>
       <c r="M89">
-        <v>19.194984</v>
+        <v>18.539004</v>
       </c>
       <c r="N89">
-        <v>-16.184984</v>
+        <v>-15.529004</v>
       </c>
       <c r="O89">
-        <v>-3.56069648</v>
+        <v>-3.416380880000001</v>
       </c>
       <c r="P89">
-        <v>-12.62428752</v>
+        <v>-12.11262312</v>
       </c>
       <c r="Q89">
-        <v>-12.59428752</v>
+        <v>-12.08262312</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.4424026641039685</v>
+        <v>0.4568097469253587</v>
       </c>
       <c r="T89">
-        <v>4.45782941323358</v>
+        <v>4.452948706026719</v>
       </c>
       <c r="U89">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V89">
-        <v>0.03449859609156224</v>
+        <v>0.0357192867534847</v>
       </c>
       <c r="W89">
-        <v>0.1836383670233849</v>
+        <v>0.1771383670233849</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.1568118004161921</v>
+        <v>0.1623603943340214</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8571,13 +8571,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2190217256438607</v>
+        <v>0.2152396464106415</v>
       </c>
       <c r="C90">
-        <v>-53.47526993252282</v>
+        <v>-52.17105196998953</v>
       </c>
       <c r="D90">
-        <v>46.72473006747718</v>
+        <v>48.02894803001046</v>
       </c>
       <c r="E90">
         <v>15.17999999999999</v>
@@ -8604,37 +8604,37 @@
         <v>3.01</v>
       </c>
       <c r="M90">
-        <v>19.415616</v>
+        <v>18.752096</v>
       </c>
       <c r="N90">
-        <v>-16.405616</v>
+        <v>-15.742096</v>
       </c>
       <c r="O90">
-        <v>-3.60923552</v>
+        <v>-3.46326112</v>
       </c>
       <c r="P90">
-        <v>-12.79638048</v>
+        <v>-12.27883488</v>
       </c>
       <c r="Q90">
-        <v>-12.76638048</v>
+        <v>-12.24883488</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.4779528861126325</v>
+        <v>0.4941022258358053</v>
       </c>
       <c r="T90">
-        <v>4.829315197669712</v>
+        <v>4.824027764862279</v>
       </c>
       <c r="U90">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V90">
-        <v>0.03410656659052178</v>
+        <v>0.03531338576764965</v>
       </c>
       <c r="W90">
-        <v>0.1837129310344828</v>
+        <v>0.1772129310344828</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.1550298481387352</v>
+        <v>0.160515389852953</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8653,13 +8653,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2207657256438607</v>
+        <v>0.2169836464106415</v>
       </c>
       <c r="C91">
-        <v>-55.03283849664104</v>
+        <v>-53.73436964478959</v>
       </c>
       <c r="D91">
-        <v>46.32716150335895</v>
+        <v>47.6256303552104</v>
       </c>
       <c r="E91">
         <v>16.33999999999999</v>
@@ -8686,37 +8686,37 @@
         <v>3.01</v>
       </c>
       <c r="M91">
-        <v>19.636248</v>
+        <v>18.965188</v>
       </c>
       <c r="N91">
-        <v>-16.626248</v>
+        <v>-15.955188</v>
       </c>
       <c r="O91">
-        <v>-3.657774559999999</v>
+        <v>-3.51014136</v>
       </c>
       <c r="P91">
-        <v>-12.96847344</v>
+        <v>-12.44504664</v>
       </c>
       <c r="Q91">
-        <v>-12.93847344</v>
+        <v>-12.41504664</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.5199667848501446</v>
+        <v>0.5381751554572423</v>
       </c>
       <c r="T91">
-        <v>5.268343852003322</v>
+        <v>5.262575743486123</v>
       </c>
       <c r="U91">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V91">
-        <v>0.03372334674119007</v>
+        <v>0.03491660615228281</v>
       </c>
       <c r="W91">
-        <v>0.1837858194498257</v>
+        <v>0.1772858194498257</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.1532879397326822</v>
+        <v>0.1587118461467401</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8735,13 +8735,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2225097256438607</v>
+        <v>0.2187276464106415</v>
       </c>
       <c r="C92">
-        <v>-56.58369852710261</v>
+        <v>-55.2909700973231</v>
       </c>
       <c r="D92">
-        <v>45.9363014728974</v>
+        <v>47.2290299026769</v>
       </c>
       <c r="E92">
         <v>17.5</v>
@@ -8768,37 +8768,37 @@
         <v>3.01</v>
       </c>
       <c r="M92">
-        <v>19.85688</v>
+        <v>19.17828</v>
       </c>
       <c r="N92">
-        <v>-16.84688</v>
+        <v>-16.16828</v>
       </c>
       <c r="O92">
-        <v>-3.7063136</v>
+        <v>-3.557021600000001</v>
       </c>
       <c r="P92">
-        <v>-13.1405664</v>
+        <v>-12.6112584</v>
       </c>
       <c r="Q92">
-        <v>-13.1105664</v>
+        <v>-12.5812584</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.5703834633351592</v>
+        <v>0.5910626710029665</v>
       </c>
       <c r="T92">
-        <v>5.795178237203655</v>
+        <v>5.788833317834736</v>
       </c>
       <c r="U92">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V92">
-        <v>0.03334864288851017</v>
+        <v>0.03452864386170188</v>
       </c>
       <c r="W92">
-        <v>0.1838570881226054</v>
+        <v>0.1773570881226054</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.1515847404023191</v>
+        <v>0.1569483811895539</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8817,13 +8817,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2242537256438607</v>
+        <v>0.2204716464106415</v>
       </c>
       <c r="C93">
-        <v>-58.12801840203544</v>
+        <v>-56.84101975384799</v>
       </c>
       <c r="D93">
-        <v>45.55198159796456</v>
+        <v>46.838980246152</v>
       </c>
       <c r="E93">
         <v>18.66</v>
@@ -8850,37 +8850,37 @@
         <v>3.01</v>
       </c>
       <c r="M93">
-        <v>20.077512</v>
+        <v>19.391372</v>
       </c>
       <c r="N93">
-        <v>-17.067512</v>
+        <v>-16.381372</v>
       </c>
       <c r="O93">
-        <v>-3.75485264</v>
+        <v>-3.60390184</v>
       </c>
       <c r="P93">
-        <v>-13.31265936</v>
+        <v>-12.77747016</v>
       </c>
       <c r="Q93">
-        <v>-13.28265936</v>
+        <v>-12.74747016</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.632003848150177</v>
+        <v>0.655702967781074</v>
       </c>
       <c r="T93">
-        <v>6.439086930226284</v>
+        <v>6.432037019816374</v>
       </c>
       <c r="U93">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V93">
-        <v>0.03298217428533973</v>
+        <v>0.03414920821486999</v>
       </c>
       <c r="W93">
-        <v>0.1839267904509284</v>
+        <v>0.1774267904509284</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.1499189740242716</v>
+        <v>0.1552236737039546</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8899,13 +8899,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2259977256438608</v>
+        <v>0.2222156464106415</v>
       </c>
       <c r="C94">
-        <v>-59.66596091146796</v>
+        <v>-58.38467958780751</v>
       </c>
       <c r="D94">
-        <v>45.17403908853203</v>
+        <v>46.45532041219248</v>
       </c>
       <c r="E94">
         <v>19.81999999999999</v>
@@ -8932,37 +8932,37 @@
         <v>3.01</v>
       </c>
       <c r="M94">
-        <v>20.298144</v>
+        <v>19.604464</v>
       </c>
       <c r="N94">
-        <v>-17.288144</v>
+        <v>-16.594464</v>
       </c>
       <c r="O94">
-        <v>-3.803391680000001</v>
+        <v>-3.65078208</v>
       </c>
       <c r="P94">
-        <v>-13.48475232</v>
+        <v>-12.94368192</v>
       </c>
       <c r="Q94">
-        <v>-13.45475232</v>
+        <v>-12.91368192</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.7090293291689492</v>
+        <v>0.7365033387537083</v>
       </c>
       <c r="T94">
-        <v>7.243972796504572</v>
+        <v>7.236041647293423</v>
       </c>
       <c r="U94">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V94">
-        <v>0.03262367239093387</v>
+        <v>0.03377802116905618</v>
       </c>
       <c r="W94">
-        <v>0.1839949775112444</v>
+        <v>0.1774949775112444</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.1482894199587902</v>
+        <v>0.1535364598593462</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8981,13 +8981,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2277417256438607</v>
+        <v>0.2239596464106415</v>
       </c>
       <c r="C95">
-        <v>-61.19768348724234</v>
+        <v>-59.9221053413368</v>
       </c>
       <c r="D95">
-        <v>44.80231651275766</v>
+        <v>46.0778946586632</v>
       </c>
       <c r="E95">
         <v>20.98</v>
@@ -9014,37 +9014,37 @@
         <v>3.01</v>
       </c>
       <c r="M95">
-        <v>20.518776</v>
+        <v>19.817556</v>
       </c>
       <c r="N95">
-        <v>-17.508776</v>
+        <v>-16.80755600000001</v>
       </c>
       <c r="O95">
-        <v>-3.851930720000001</v>
+        <v>-3.697662320000001</v>
       </c>
       <c r="P95">
-        <v>-13.65684528</v>
+        <v>-13.10989368</v>
       </c>
       <c r="Q95">
-        <v>-13.62684528</v>
+        <v>-13.07989368</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>0.8080620904787992</v>
+        <v>0.8403895300042381</v>
       </c>
       <c r="T95">
-        <v>8.278826053148082</v>
+        <v>8.269761882621054</v>
       </c>
       <c r="U95">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V95">
-        <v>0.03227288021468726</v>
+        <v>0.03341481664035666</v>
       </c>
       <c r="W95">
-        <v>0.1840616981831665</v>
+        <v>0.1775616981831665</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.1466949100667602</v>
+        <v>0.1518855301834392</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9063,13 +9063,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2294857256438608</v>
+        <v>0.2257036464106415</v>
       </c>
       <c r="C96">
-        <v>-62.72333842166914</v>
+        <v>-61.45344773605882</v>
       </c>
       <c r="D96">
-        <v>44.43666157833086</v>
+        <v>45.70655226394118</v>
       </c>
       <c r="E96">
         <v>22.14</v>
@@ -9096,37 +9096,37 @@
         <v>3.01</v>
       </c>
       <c r="M96">
-        <v>20.739408</v>
+        <v>20.030648</v>
       </c>
       <c r="N96">
-        <v>-17.729408</v>
+        <v>-17.020648</v>
       </c>
       <c r="O96">
-        <v>-3.90046976</v>
+        <v>-3.74454256</v>
       </c>
       <c r="P96">
-        <v>-13.82893824</v>
+        <v>-13.27610544</v>
       </c>
       <c r="Q96">
-        <v>-13.79893824</v>
+        <v>-13.24610544</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>0.9401057722252658</v>
+        <v>0.9789044516716116</v>
       </c>
       <c r="T96">
-        <v>9.658630395339431</v>
+        <v>9.648055529724568</v>
       </c>
       <c r="U96">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V96">
-        <v>0.03192955170176506</v>
+        <v>0.03305933986758691</v>
       </c>
       <c r="W96">
-        <v>0.1841269992663243</v>
+        <v>0.1776269992663243</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.1451343259171139</v>
+        <v>0.1502697266708497</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9145,13 +9145,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2312297256438607</v>
+        <v>0.2274476464106415</v>
       </c>
       <c r="C97">
-        <v>-64.24307307556145</v>
+        <v>-62.97885267376907</v>
       </c>
       <c r="D97">
-        <v>44.07692692443855</v>
+        <v>45.34114732623093</v>
       </c>
       <c r="E97">
         <v>23.3</v>
@@ -9178,37 +9178,37 @@
         <v>3.01</v>
       </c>
       <c r="M97">
-        <v>20.96004</v>
+        <v>20.24374</v>
       </c>
       <c r="N97">
-        <v>-17.95004</v>
+        <v>-17.23374</v>
       </c>
       <c r="O97">
-        <v>-3.9490088</v>
+        <v>-3.791422800000001</v>
       </c>
       <c r="P97">
-        <v>-14.0010312</v>
+        <v>-13.4423172</v>
       </c>
       <c r="Q97">
-        <v>-13.9710312</v>
+        <v>-13.4123172</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.12496692667032</v>
+        <v>1.172825342005935</v>
       </c>
       <c r="T97">
-        <v>11.59035647440732</v>
+        <v>11.57766663566949</v>
       </c>
       <c r="U97">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V97">
-        <v>0.03159345115753595</v>
+        <v>0.03271134681634914</v>
       </c>
       <c r="W97">
-        <v>0.1841909255898367</v>
+        <v>0.1776909255898367</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.143606596170618</v>
+        <v>0.1486879400743142</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9227,13 +9227,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2329737256438607</v>
+        <v>0.2291916464106415</v>
       </c>
       <c r="C98">
-        <v>-65.7570300762452</v>
+        <v>-64.49846142756988</v>
       </c>
       <c r="D98">
-        <v>43.7229699237548</v>
+        <v>44.98153857243012</v>
       </c>
       <c r="E98">
         <v>24.45999999999999</v>
@@ -9260,37 +9260,37 @@
         <v>3.01</v>
       </c>
       <c r="M98">
-        <v>21.180672</v>
+        <v>20.456832</v>
       </c>
       <c r="N98">
-        <v>-18.170672</v>
+        <v>-17.446832</v>
       </c>
       <c r="O98">
-        <v>-3.997547840000001</v>
+        <v>-3.83830304</v>
       </c>
       <c r="P98">
-        <v>-14.17312416</v>
+        <v>-13.60852896</v>
       </c>
       <c r="Q98">
-        <v>-14.14312416</v>
+        <v>-13.57852896</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.402258658337896</v>
+        <v>1.463706677507415</v>
       </c>
       <c r="T98">
-        <v>14.48794559300912</v>
+        <v>14.47208329458682</v>
       </c>
       <c r="U98">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V98">
-        <v>0.03126435270797829</v>
+        <v>0.03237060362034552</v>
       </c>
       <c r="W98">
-        <v>0.1842535201149425</v>
+        <v>0.1777535201149425</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.1421106941271739</v>
+        <v>0.1471391073652069</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9309,13 +9309,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2347177256438608</v>
+        <v>0.2309356464106415</v>
       </c>
       <c r="C99">
-        <v>-67.26534750610503</v>
+        <v>-66.01241082398138</v>
       </c>
       <c r="D99">
-        <v>43.37465249389496</v>
+        <v>44.6275891760186</v>
       </c>
       <c r="E99">
         <v>25.61999999999999</v>
@@ -9342,37 +9342,37 @@
         <v>3.01</v>
       </c>
       <c r="M99">
-        <v>21.401304</v>
+        <v>20.669924</v>
       </c>
       <c r="N99">
-        <v>-18.391304</v>
+        <v>-17.659924</v>
       </c>
       <c r="O99">
-        <v>-4.04608688</v>
+        <v>-3.885183279999999</v>
       </c>
       <c r="P99">
-        <v>-14.34521712</v>
+        <v>-13.77474072</v>
       </c>
       <c r="Q99">
-        <v>-14.31521712</v>
+        <v>-13.74474072</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>1.864411544450529</v>
+        <v>1.94850890334322</v>
       </c>
       <c r="T99">
-        <v>19.31726079067883</v>
+        <v>19.2961110594491</v>
       </c>
       <c r="U99">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V99">
-        <v>0.03094203979346305</v>
+        <v>0.03203688605724917</v>
       </c>
       <c r="W99">
-        <v>0.1843148240312834</v>
+        <v>0.1778148240312833</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.1406456354248321</v>
+        <v>0.1456222093511327</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9391,13 +9391,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2364617256438608</v>
+        <v>0.2326796464106415</v>
       </c>
       <c r="C100">
-        <v>-68.76815908218887</v>
+        <v>-67.520833416521</v>
       </c>
       <c r="D100">
-        <v>43.03184091781111</v>
+        <v>44.27916658347899</v>
       </c>
       <c r="E100">
         <v>26.77999999999999</v>
@@ -9424,37 +9424,37 @@
         <v>3.01</v>
       </c>
       <c r="M100">
-        <v>21.621936</v>
+        <v>20.883016</v>
       </c>
       <c r="N100">
-        <v>-18.611936</v>
+        <v>-17.873016</v>
       </c>
       <c r="O100">
-        <v>-4.09462592</v>
+        <v>-3.93206352</v>
       </c>
       <c r="P100">
-        <v>-14.51731008</v>
+        <v>-13.94095248</v>
       </c>
       <c r="Q100">
-        <v>-14.48731008</v>
+        <v>-13.91095248</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>2.788717316675793</v>
+        <v>2.918113355014829</v>
       </c>
       <c r="T100">
-        <v>28.97589118601825</v>
+        <v>28.94416658917365</v>
       </c>
       <c r="U100">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V100">
-        <v>0.03062630469352976</v>
+        <v>0.031709979056665</v>
       </c>
       <c r="W100">
-        <v>0.1843748768472906</v>
+        <v>0.1778748768472906</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.1392104758796806</v>
+        <v>0.1441362684393862</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9473,13 +9473,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2382057256438607</v>
+        <v>0.2344236464106415</v>
       </c>
       <c r="C101">
-        <v>-70.26559432736255</v>
+        <v>-69.02385765121525</v>
       </c>
       <c r="D101">
-        <v>42.69440567263746</v>
+        <v>43.93614234878476</v>
       </c>
       <c r="E101">
         <v>27.94</v>
@@ -9506,37 +9506,37 @@
         <v>3.01</v>
       </c>
       <c r="M101">
-        <v>21.842568</v>
+        <v>21.096108</v>
       </c>
       <c r="N101">
-        <v>-18.832568</v>
+        <v>-18.086108</v>
       </c>
       <c r="O101">
-        <v>-4.143164960000001</v>
+        <v>-3.978943760000001</v>
       </c>
       <c r="P101">
-        <v>-14.68940304</v>
+        <v>-14.10716424</v>
       </c>
       <c r="Q101">
-        <v>-14.65940304</v>
+        <v>-14.07716424</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>5.561634633351585</v>
+        <v>5.826926710029658</v>
       </c>
       <c r="T101">
-        <v>57.95178237203649</v>
+        <v>57.8883331783473</v>
       </c>
       <c r="U101">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V101">
-        <v>0.0303169480804638</v>
+        <v>0.0313896762379108</v>
       </c>
       <c r="W101">
-        <v>0.1844337164750958</v>
+        <v>0.1779337164750958</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.1378043094566536</v>
+        <v>0.1426803465359581</v>
       </c>
       <c r="Z101">
         <v>0</v>
